--- a/Students/Grades.xlsx
+++ b/Students/Grades.xlsx
@@ -5867,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I70" sqref="I69:I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,7 +5970,7 @@
         <v>111</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>IF(K2&gt;=85,"Excellent (6)",IF(K2&gt;=70,"Very Good (5)",IF(K2&gt;=55,"Good (4)",IF(K2&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L2:L65" si="0">IF(K2&gt;=85,"Excellent (6)",IF(K2&gt;=70,"Very Good (5)",IF(K2&gt;=55,"Good (4)",IF(K2&gt;=40,"Average (3)","-"))))</f>
         <v>Excellent (6)</v>
       </c>
       <c r="M2" t="s">
@@ -6017,7 +6017,7 @@
         <v>110</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>IF(K3&gt;=85,"Excellent (6)",IF(K3&gt;=70,"Very Good (5)",IF(K3&gt;=55,"Good (4)",IF(K3&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M3" t="s">
@@ -6064,7 +6064,7 @@
         <v>107</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f>IF(K4&gt;=85,"Excellent (6)",IF(K4&gt;=70,"Very Good (5)",IF(K4&gt;=55,"Good (4)",IF(K4&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M4" t="s">
@@ -6111,7 +6111,7 @@
         <v>107</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f>IF(K5&gt;=85,"Excellent (6)",IF(K5&gt;=70,"Very Good (5)",IF(K5&gt;=55,"Good (4)",IF(K5&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M5" t="s">
@@ -6158,7 +6158,7 @@
         <v>107</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f>IF(K6&gt;=85,"Excellent (6)",IF(K6&gt;=70,"Very Good (5)",IF(K6&gt;=55,"Good (4)",IF(K6&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M6" t="s">
@@ -6205,7 +6205,7 @@
         <v>106</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f>IF(K7&gt;=85,"Excellent (6)",IF(K7&gt;=70,"Very Good (5)",IF(K7&gt;=55,"Good (4)",IF(K7&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M7" t="s">
@@ -6252,7 +6252,7 @@
         <v>104</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f>IF(K8&gt;=85,"Excellent (6)",IF(K8&gt;=70,"Very Good (5)",IF(K8&gt;=55,"Good (4)",IF(K8&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M8" t="s">
@@ -6299,7 +6299,7 @@
         <v>103</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f>IF(K9&gt;=85,"Excellent (6)",IF(K9&gt;=70,"Very Good (5)",IF(K9&gt;=55,"Good (4)",IF(K9&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M9" t="s">
@@ -6346,7 +6346,7 @@
         <v>102</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f>IF(K10&gt;=85,"Excellent (6)",IF(K10&gt;=70,"Very Good (5)",IF(K10&gt;=55,"Good (4)",IF(K10&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M10" t="s">
@@ -6393,7 +6393,7 @@
         <v>101</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f>IF(K11&gt;=85,"Excellent (6)",IF(K11&gt;=70,"Very Good (5)",IF(K11&gt;=55,"Good (4)",IF(K11&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M11" t="s">
@@ -6440,7 +6440,7 @@
         <v>101</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f>IF(K12&gt;=85,"Excellent (6)",IF(K12&gt;=70,"Very Good (5)",IF(K12&gt;=55,"Good (4)",IF(K12&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M12" t="s">
@@ -6487,7 +6487,7 @@
         <v>100</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f>IF(K13&gt;=85,"Excellent (6)",IF(K13&gt;=70,"Very Good (5)",IF(K13&gt;=55,"Good (4)",IF(K13&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M13" t="s">
@@ -6534,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f>IF(K14&gt;=85,"Excellent (6)",IF(K14&gt;=70,"Very Good (5)",IF(K14&gt;=55,"Good (4)",IF(K14&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M14" t="s">
@@ -6581,7 +6581,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f>IF(K15&gt;=85,"Excellent (6)",IF(K15&gt;=70,"Very Good (5)",IF(K15&gt;=55,"Good (4)",IF(K15&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M15" t="s">
@@ -6628,7 +6628,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f>IF(K16&gt;=85,"Excellent (6)",IF(K16&gt;=70,"Very Good (5)",IF(K16&gt;=55,"Good (4)",IF(K16&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M16" t="s">
@@ -6675,7 +6675,7 @@
         <v>99</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f>IF(K17&gt;=85,"Excellent (6)",IF(K17&gt;=70,"Very Good (5)",IF(K17&gt;=55,"Good (4)",IF(K17&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M17" t="s">
@@ -6722,7 +6722,7 @@
         <v>99</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f>IF(K18&gt;=85,"Excellent (6)",IF(K18&gt;=70,"Very Good (5)",IF(K18&gt;=55,"Good (4)",IF(K18&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M18" t="s">
@@ -6769,7 +6769,7 @@
         <v>99</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f>IF(K19&gt;=85,"Excellent (6)",IF(K19&gt;=70,"Very Good (5)",IF(K19&gt;=55,"Good (4)",IF(K19&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M19" t="s">
@@ -6816,7 +6816,7 @@
         <v>98</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f>IF(K20&gt;=85,"Excellent (6)",IF(K20&gt;=70,"Very Good (5)",IF(K20&gt;=55,"Good (4)",IF(K20&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M20" t="s">
@@ -6863,7 +6863,7 @@
         <v>98</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f>IF(K21&gt;=85,"Excellent (6)",IF(K21&gt;=70,"Very Good (5)",IF(K21&gt;=55,"Good (4)",IF(K21&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M21" t="s">
@@ -6910,7 +6910,7 @@
         <v>98</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f>IF(K22&gt;=85,"Excellent (6)",IF(K22&gt;=70,"Very Good (5)",IF(K22&gt;=55,"Good (4)",IF(K22&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M22" t="s">
@@ -6957,7 +6957,7 @@
         <v>98</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f>IF(K23&gt;=85,"Excellent (6)",IF(K23&gt;=70,"Very Good (5)",IF(K23&gt;=55,"Good (4)",IF(K23&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M23" t="s">
@@ -7004,7 +7004,7 @@
         <v>97</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f>IF(K24&gt;=85,"Excellent (6)",IF(K24&gt;=70,"Very Good (5)",IF(K24&gt;=55,"Good (4)",IF(K24&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M24" t="s">
@@ -7051,7 +7051,7 @@
         <v>96</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f>IF(K25&gt;=85,"Excellent (6)",IF(K25&gt;=70,"Very Good (5)",IF(K25&gt;=55,"Good (4)",IF(K25&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M25" t="s">
@@ -7098,7 +7098,7 @@
         <v>96</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f>IF(K26&gt;=85,"Excellent (6)",IF(K26&gt;=70,"Very Good (5)",IF(K26&gt;=55,"Good (4)",IF(K26&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M26" t="s">
@@ -7145,7 +7145,7 @@
         <v>95</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f>IF(K27&gt;=85,"Excellent (6)",IF(K27&gt;=70,"Very Good (5)",IF(K27&gt;=55,"Good (4)",IF(K27&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M27" t="s">
@@ -7192,7 +7192,7 @@
         <v>92</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f>IF(K28&gt;=85,"Excellent (6)",IF(K28&gt;=70,"Very Good (5)",IF(K28&gt;=55,"Good (4)",IF(K28&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M28" t="s">
@@ -7239,7 +7239,7 @@
         <v>91</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f>IF(K29&gt;=85,"Excellent (6)",IF(K29&gt;=70,"Very Good (5)",IF(K29&gt;=55,"Good (4)",IF(K29&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M29" t="s">
@@ -7286,7 +7286,7 @@
         <v>90</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f>IF(K30&gt;=85,"Excellent (6)",IF(K30&gt;=70,"Very Good (5)",IF(K30&gt;=55,"Good (4)",IF(K30&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M30" t="s">
@@ -7333,7 +7333,7 @@
         <v>90</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f>IF(K31&gt;=85,"Excellent (6)",IF(K31&gt;=70,"Very Good (5)",IF(K31&gt;=55,"Good (4)",IF(K31&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M31" t="s">
@@ -7380,7 +7380,7 @@
         <v>89</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f>IF(K32&gt;=85,"Excellent (6)",IF(K32&gt;=70,"Very Good (5)",IF(K32&gt;=55,"Good (4)",IF(K32&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M32" t="s">
@@ -7427,7 +7427,7 @@
         <v>89</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f>IF(K33&gt;=85,"Excellent (6)",IF(K33&gt;=70,"Very Good (5)",IF(K33&gt;=55,"Good (4)",IF(K33&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M33" t="s">
@@ -7474,7 +7474,7 @@
         <v>89</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f>IF(K34&gt;=85,"Excellent (6)",IF(K34&gt;=70,"Very Good (5)",IF(K34&gt;=55,"Good (4)",IF(K34&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M34" t="s">
@@ -7521,7 +7521,7 @@
         <v>88</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f>IF(K35&gt;=85,"Excellent (6)",IF(K35&gt;=70,"Very Good (5)",IF(K35&gt;=55,"Good (4)",IF(K35&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M35" t="s">
@@ -7568,7 +7568,7 @@
         <v>88</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f>IF(K36&gt;=85,"Excellent (6)",IF(K36&gt;=70,"Very Good (5)",IF(K36&gt;=55,"Good (4)",IF(K36&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M36" t="s">
@@ -7615,7 +7615,7 @@
         <v>87</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f>IF(K37&gt;=85,"Excellent (6)",IF(K37&gt;=70,"Very Good (5)",IF(K37&gt;=55,"Good (4)",IF(K37&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M37" t="s">
@@ -7662,7 +7662,7 @@
         <v>87</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f>IF(K38&gt;=85,"Excellent (6)",IF(K38&gt;=70,"Very Good (5)",IF(K38&gt;=55,"Good (4)",IF(K38&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M38" t="s">
@@ -7709,7 +7709,7 @@
         <v>86</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f>IF(K39&gt;=85,"Excellent (6)",IF(K39&gt;=70,"Very Good (5)",IF(K39&gt;=55,"Good (4)",IF(K39&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M39" t="s">
@@ -7756,7 +7756,7 @@
         <v>86</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f>IF(K40&gt;=85,"Excellent (6)",IF(K40&gt;=70,"Very Good (5)",IF(K40&gt;=55,"Good (4)",IF(K40&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M40" t="s">
@@ -7803,7 +7803,7 @@
         <v>85</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f>IF(K41&gt;=85,"Excellent (6)",IF(K41&gt;=70,"Very Good (5)",IF(K41&gt;=55,"Good (4)",IF(K41&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M41" t="s">
@@ -7850,7 +7850,7 @@
         <v>85</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f>IF(K42&gt;=85,"Excellent (6)",IF(K42&gt;=70,"Very Good (5)",IF(K42&gt;=55,"Good (4)",IF(K42&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M42" t="s">
@@ -7897,7 +7897,7 @@
         <v>85</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f>IF(K43&gt;=85,"Excellent (6)",IF(K43&gt;=70,"Very Good (5)",IF(K43&gt;=55,"Good (4)",IF(K43&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M43" t="s">
@@ -7944,7 +7944,7 @@
         <v>85</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f>IF(K44&gt;=85,"Excellent (6)",IF(K44&gt;=70,"Very Good (5)",IF(K44&gt;=55,"Good (4)",IF(K44&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M44" t="s">
@@ -7991,7 +7991,7 @@
         <v>85</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f>IF(K45&gt;=85,"Excellent (6)",IF(K45&gt;=70,"Very Good (5)",IF(K45&gt;=55,"Good (4)",IF(K45&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M45" t="s">
@@ -8038,7 +8038,7 @@
         <v>85</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f>IF(K46&gt;=85,"Excellent (6)",IF(K46&gt;=70,"Very Good (5)",IF(K46&gt;=55,"Good (4)",IF(K46&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M46" t="s">
@@ -8085,7 +8085,7 @@
         <v>85</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f>IF(K47&gt;=85,"Excellent (6)",IF(K47&gt;=70,"Very Good (5)",IF(K47&gt;=55,"Good (4)",IF(K47&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M47" t="s">
@@ -8132,7 +8132,7 @@
         <v>85</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f>IF(K48&gt;=85,"Excellent (6)",IF(K48&gt;=70,"Very Good (5)",IF(K48&gt;=55,"Good (4)",IF(K48&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M48" t="s">
@@ -8179,7 +8179,7 @@
         <v>85</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f>IF(K49&gt;=85,"Excellent (6)",IF(K49&gt;=70,"Very Good (5)",IF(K49&gt;=55,"Good (4)",IF(K49&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M49" t="s">
@@ -8223,7 +8223,7 @@
         <v>85</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f>IF(K50&gt;=85,"Excellent (6)",IF(K50&gt;=70,"Very Good (5)",IF(K50&gt;=55,"Good (4)",IF(K50&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M50" t="s">
@@ -8267,7 +8267,7 @@
         <v>85</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f>IF(K51&gt;=85,"Excellent (6)",IF(K51&gt;=70,"Very Good (5)",IF(K51&gt;=55,"Good (4)",IF(K51&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M51" t="s">
@@ -8311,7 +8311,7 @@
         <v>85</v>
       </c>
       <c r="L52" s="2" t="str">
-        <f>IF(K52&gt;=85,"Excellent (6)",IF(K52&gt;=70,"Very Good (5)",IF(K52&gt;=55,"Good (4)",IF(K52&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M52" t="s">
@@ -8355,7 +8355,7 @@
         <v>85</v>
       </c>
       <c r="L53" s="5" t="str">
-        <f>IF(K53&gt;=85,"Excellent (6)",IF(K53&gt;=70,"Very Good (5)",IF(K53&gt;=55,"Good (4)",IF(K53&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M53" t="s">
@@ -8402,7 +8402,7 @@
         <v>85</v>
       </c>
       <c r="L54" s="2" t="str">
-        <f>IF(K54&gt;=85,"Excellent (6)",IF(K54&gt;=70,"Very Good (5)",IF(K54&gt;=55,"Good (4)",IF(K54&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M54" t="s">
@@ -8446,7 +8446,7 @@
         <v>85</v>
       </c>
       <c r="L55" s="5" t="str">
-        <f>IF(K55&gt;=85,"Excellent (6)",IF(K55&gt;=70,"Very Good (5)",IF(K55&gt;=55,"Good (4)",IF(K55&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M55" t="s">
@@ -8490,7 +8490,7 @@
         <v>85</v>
       </c>
       <c r="L56" s="5" t="str">
-        <f>IF(K56&gt;=85,"Excellent (6)",IF(K56&gt;=70,"Very Good (5)",IF(K56&gt;=55,"Good (4)",IF(K56&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Excellent (6)</v>
       </c>
       <c r="M56" t="s">
@@ -8537,7 +8537,7 @@
         <v>83</v>
       </c>
       <c r="L57" s="2" t="str">
-        <f>IF(K57&gt;=85,"Excellent (6)",IF(K57&gt;=70,"Very Good (5)",IF(K57&gt;=55,"Good (4)",IF(K57&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M57" t="s">
@@ -8584,7 +8584,7 @@
         <v>80</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f>IF(K58&gt;=85,"Excellent (6)",IF(K58&gt;=70,"Very Good (5)",IF(K58&gt;=55,"Good (4)",IF(K58&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M58" t="s">
@@ -8631,7 +8631,7 @@
         <v>77</v>
       </c>
       <c r="L59" s="2" t="str">
-        <f>IF(K59&gt;=85,"Excellent (6)",IF(K59&gt;=70,"Very Good (5)",IF(K59&gt;=55,"Good (4)",IF(K59&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M59" t="s">
@@ -8678,7 +8678,7 @@
         <v>75</v>
       </c>
       <c r="L60" s="2" t="str">
-        <f>IF(K60&gt;=85,"Excellent (6)",IF(K60&gt;=70,"Very Good (5)",IF(K60&gt;=55,"Good (4)",IF(K60&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M60" t="s">
@@ -8725,7 +8725,7 @@
         <v>73</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f>IF(K61&gt;=85,"Excellent (6)",IF(K61&gt;=70,"Very Good (5)",IF(K61&gt;=55,"Good (4)",IF(K61&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M61" t="s">
@@ -8772,7 +8772,7 @@
         <v>73</v>
       </c>
       <c r="L62" s="2" t="str">
-        <f>IF(K62&gt;=85,"Excellent (6)",IF(K62&gt;=70,"Very Good (5)",IF(K62&gt;=55,"Good (4)",IF(K62&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M62" t="s">
@@ -8819,7 +8819,7 @@
         <v>72</v>
       </c>
       <c r="L63" s="2" t="str">
-        <f>IF(K63&gt;=85,"Excellent (6)",IF(K63&gt;=70,"Very Good (5)",IF(K63&gt;=55,"Good (4)",IF(K63&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M63" t="s">
@@ -8866,7 +8866,7 @@
         <v>70</v>
       </c>
       <c r="L64" s="2" t="str">
-        <f>IF(K64&gt;=85,"Excellent (6)",IF(K64&gt;=70,"Very Good (5)",IF(K64&gt;=55,"Good (4)",IF(K64&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M64" t="s">
@@ -8913,7 +8913,7 @@
         <v>70</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f>IF(K65&gt;=85,"Excellent (6)",IF(K65&gt;=70,"Very Good (5)",IF(K65&gt;=55,"Good (4)",IF(K65&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="0"/>
         <v>Very Good (5)</v>
       </c>
       <c r="M65" t="s">
@@ -8960,7 +8960,7 @@
         <v>70</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f>IF(K66&gt;=85,"Excellent (6)",IF(K66&gt;=70,"Very Good (5)",IF(K66&gt;=55,"Good (4)",IF(K66&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L66:L129" si="1">IF(K66&gt;=85,"Excellent (6)",IF(K66&gt;=70,"Very Good (5)",IF(K66&gt;=55,"Good (4)",IF(K66&gt;=40,"Average (3)","-"))))</f>
         <v>Very Good (5)</v>
       </c>
       <c r="M66" t="s">
@@ -9007,7 +9007,7 @@
         <v>69</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f>IF(K67&gt;=85,"Excellent (6)",IF(K67&gt;=70,"Very Good (5)",IF(K67&gt;=55,"Good (4)",IF(K67&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>Good (4)</v>
       </c>
       <c r="M67" t="s">
@@ -9054,7 +9054,7 @@
         <v>60</v>
       </c>
       <c r="L68" s="2" t="str">
-        <f>IF(K68&gt;=85,"Excellent (6)",IF(K68&gt;=70,"Very Good (5)",IF(K68&gt;=55,"Good (4)",IF(K68&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>Good (4)</v>
       </c>
       <c r="M68" t="s">
@@ -9101,7 +9101,7 @@
         <v>41</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f>IF(K69&gt;=85,"Excellent (6)",IF(K69&gt;=70,"Very Good (5)",IF(K69&gt;=55,"Good (4)",IF(K69&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>Average (3)</v>
       </c>
       <c r="M69" t="s">
@@ -9148,7 +9148,7 @@
         <v>40</v>
       </c>
       <c r="L70" s="2" t="str">
-        <f>IF(K70&gt;=85,"Excellent (6)",IF(K70&gt;=70,"Very Good (5)",IF(K70&gt;=55,"Good (4)",IF(K70&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>Average (3)</v>
       </c>
       <c r="M70" t="s">
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="5" t="str">
-        <f>IF(K71&gt;=85,"Excellent (6)",IF(K71&gt;=70,"Very Good (5)",IF(K71&gt;=55,"Good (4)",IF(K71&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M71" t="s">
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="str">
-        <f>IF(K72&gt;=85,"Excellent (6)",IF(K72&gt;=70,"Very Good (5)",IF(K72&gt;=55,"Good (4)",IF(K72&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M72" t="s">
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="str">
-        <f>IF(K73&gt;=85,"Excellent (6)",IF(K73&gt;=70,"Very Good (5)",IF(K73&gt;=55,"Good (4)",IF(K73&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M73" t="s">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="str">
-        <f>IF(K74&gt;=85,"Excellent (6)",IF(K74&gt;=70,"Very Good (5)",IF(K74&gt;=55,"Good (4)",IF(K74&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M74" t="s">
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="str">
-        <f>IF(K75&gt;=85,"Excellent (6)",IF(K75&gt;=70,"Very Good (5)",IF(K75&gt;=55,"Good (4)",IF(K75&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M75" t="s">
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="2" t="str">
-        <f>IF(K76&gt;=85,"Excellent (6)",IF(K76&gt;=70,"Very Good (5)",IF(K76&gt;=55,"Good (4)",IF(K76&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M76" t="s">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="str">
-        <f>IF(K77&gt;=85,"Excellent (6)",IF(K77&gt;=70,"Very Good (5)",IF(K77&gt;=55,"Good (4)",IF(K77&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M77" t="s">
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="2" t="str">
-        <f>IF(K78&gt;=85,"Excellent (6)",IF(K78&gt;=70,"Very Good (5)",IF(K78&gt;=55,"Good (4)",IF(K78&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M78" t="s">
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="2" t="str">
-        <f>IF(K79&gt;=85,"Excellent (6)",IF(K79&gt;=70,"Very Good (5)",IF(K79&gt;=55,"Good (4)",IF(K79&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M79" t="s">
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="2" t="str">
-        <f>IF(K80&gt;=85,"Excellent (6)",IF(K80&gt;=70,"Very Good (5)",IF(K80&gt;=55,"Good (4)",IF(K80&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M80" t="s">
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="2" t="str">
-        <f>IF(K81&gt;=85,"Excellent (6)",IF(K81&gt;=70,"Very Good (5)",IF(K81&gt;=55,"Good (4)",IF(K81&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M81" t="s">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="2" t="str">
-        <f>IF(K82&gt;=85,"Excellent (6)",IF(K82&gt;=70,"Very Good (5)",IF(K82&gt;=55,"Good (4)",IF(K82&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M82" t="s">
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="2" t="str">
-        <f>IF(K83&gt;=85,"Excellent (6)",IF(K83&gt;=70,"Very Good (5)",IF(K83&gt;=55,"Good (4)",IF(K83&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M83" t="s">
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="2" t="str">
-        <f>IF(K84&gt;=85,"Excellent (6)",IF(K84&gt;=70,"Very Good (5)",IF(K84&gt;=55,"Good (4)",IF(K84&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M84" t="s">
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="2" t="str">
-        <f>IF(K85&gt;=85,"Excellent (6)",IF(K85&gt;=70,"Very Good (5)",IF(K85&gt;=55,"Good (4)",IF(K85&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M85" t="s">
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="2" t="str">
-        <f>IF(K86&gt;=85,"Excellent (6)",IF(K86&gt;=70,"Very Good (5)",IF(K86&gt;=55,"Good (4)",IF(K86&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M86" t="s">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="2" t="str">
-        <f>IF(K87&gt;=85,"Excellent (6)",IF(K87&gt;=70,"Very Good (5)",IF(K87&gt;=55,"Good (4)",IF(K87&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M87" t="s">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="2" t="str">
-        <f>IF(K88&gt;=85,"Excellent (6)",IF(K88&gt;=70,"Very Good (5)",IF(K88&gt;=55,"Good (4)",IF(K88&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M88" t="s">
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="2" t="str">
-        <f>IF(K89&gt;=85,"Excellent (6)",IF(K89&gt;=70,"Very Good (5)",IF(K89&gt;=55,"Good (4)",IF(K89&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M89" t="s">
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="2" t="str">
-        <f>IF(K90&gt;=85,"Excellent (6)",IF(K90&gt;=70,"Very Good (5)",IF(K90&gt;=55,"Good (4)",IF(K90&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M90" t="s">
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="2" t="str">
-        <f>IF(K91&gt;=85,"Excellent (6)",IF(K91&gt;=70,"Very Good (5)",IF(K91&gt;=55,"Good (4)",IF(K91&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M91" t="s">
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="2" t="str">
-        <f>IF(K92&gt;=85,"Excellent (6)",IF(K92&gt;=70,"Very Good (5)",IF(K92&gt;=55,"Good (4)",IF(K92&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M92" t="s">
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="2" t="str">
-        <f>IF(K93&gt;=85,"Excellent (6)",IF(K93&gt;=70,"Very Good (5)",IF(K93&gt;=55,"Good (4)",IF(K93&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M93" t="s">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="2" t="str">
-        <f>IF(K94&gt;=85,"Excellent (6)",IF(K94&gt;=70,"Very Good (5)",IF(K94&gt;=55,"Good (4)",IF(K94&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M94" t="s">
@@ -10093,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="2" t="str">
-        <f>IF(K95&gt;=85,"Excellent (6)",IF(K95&gt;=70,"Very Good (5)",IF(K95&gt;=55,"Good (4)",IF(K95&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M95" t="s">
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="2" t="str">
-        <f>IF(K96&gt;=85,"Excellent (6)",IF(K96&gt;=70,"Very Good (5)",IF(K96&gt;=55,"Good (4)",IF(K96&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M96" t="s">
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="str">
-        <f>IF(K97&gt;=85,"Excellent (6)",IF(K97&gt;=70,"Very Good (5)",IF(K97&gt;=55,"Good (4)",IF(K97&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M97" t="s">
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="2" t="str">
-        <f>IF(K98&gt;=85,"Excellent (6)",IF(K98&gt;=70,"Very Good (5)",IF(K98&gt;=55,"Good (4)",IF(K98&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M98" t="s">
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="2" t="str">
-        <f>IF(K99&gt;=85,"Excellent (6)",IF(K99&gt;=70,"Very Good (5)",IF(K99&gt;=55,"Good (4)",IF(K99&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M99" t="s">
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="2" t="str">
-        <f>IF(K100&gt;=85,"Excellent (6)",IF(K100&gt;=70,"Very Good (5)",IF(K100&gt;=55,"Good (4)",IF(K100&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M100" t="s">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="2" t="str">
-        <f>IF(K101&gt;=85,"Excellent (6)",IF(K101&gt;=70,"Very Good (5)",IF(K101&gt;=55,"Good (4)",IF(K101&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M101" t="s">
@@ -10359,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="2" t="str">
-        <f>IF(K102&gt;=85,"Excellent (6)",IF(K102&gt;=70,"Very Good (5)",IF(K102&gt;=55,"Good (4)",IF(K102&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M102" t="s">
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="2" t="str">
-        <f>IF(K103&gt;=85,"Excellent (6)",IF(K103&gt;=70,"Very Good (5)",IF(K103&gt;=55,"Good (4)",IF(K103&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M103" t="s">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="2" t="str">
-        <f>IF(K104&gt;=85,"Excellent (6)",IF(K104&gt;=70,"Very Good (5)",IF(K104&gt;=55,"Good (4)",IF(K104&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M104" t="s">
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="2" t="str">
-        <f>IF(K105&gt;=85,"Excellent (6)",IF(K105&gt;=70,"Very Good (5)",IF(K105&gt;=55,"Good (4)",IF(K105&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M105" t="s">
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="2" t="str">
-        <f>IF(K106&gt;=85,"Excellent (6)",IF(K106&gt;=70,"Very Good (5)",IF(K106&gt;=55,"Good (4)",IF(K106&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M106" t="s">
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="2" t="str">
-        <f>IF(K107&gt;=85,"Excellent (6)",IF(K107&gt;=70,"Very Good (5)",IF(K107&gt;=55,"Good (4)",IF(K107&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M107" t="s">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="2" t="str">
-        <f>IF(K108&gt;=85,"Excellent (6)",IF(K108&gt;=70,"Very Good (5)",IF(K108&gt;=55,"Good (4)",IF(K108&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M108" t="s">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="2" t="str">
-        <f>IF(K109&gt;=85,"Excellent (6)",IF(K109&gt;=70,"Very Good (5)",IF(K109&gt;=55,"Good (4)",IF(K109&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M109" t="s">
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="2" t="str">
-        <f>IF(K110&gt;=85,"Excellent (6)",IF(K110&gt;=70,"Very Good (5)",IF(K110&gt;=55,"Good (4)",IF(K110&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M110" t="s">
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="2" t="str">
-        <f>IF(K111&gt;=85,"Excellent (6)",IF(K111&gt;=70,"Very Good (5)",IF(K111&gt;=55,"Good (4)",IF(K111&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M111" t="s">
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="2" t="str">
-        <f>IF(K112&gt;=85,"Excellent (6)",IF(K112&gt;=70,"Very Good (5)",IF(K112&gt;=55,"Good (4)",IF(K112&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M112" t="s">
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="2" t="str">
-        <f>IF(K113&gt;=85,"Excellent (6)",IF(K113&gt;=70,"Very Good (5)",IF(K113&gt;=55,"Good (4)",IF(K113&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M113" t="s">
@@ -10815,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="2" t="str">
-        <f>IF(K114&gt;=85,"Excellent (6)",IF(K114&gt;=70,"Very Good (5)",IF(K114&gt;=55,"Good (4)",IF(K114&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M114" t="s">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="2" t="str">
-        <f>IF(K115&gt;=85,"Excellent (6)",IF(K115&gt;=70,"Very Good (5)",IF(K115&gt;=55,"Good (4)",IF(K115&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M115" t="s">
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="2" t="str">
-        <f>IF(K116&gt;=85,"Excellent (6)",IF(K116&gt;=70,"Very Good (5)",IF(K116&gt;=55,"Good (4)",IF(K116&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M116" t="s">
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="2" t="str">
-        <f>IF(K117&gt;=85,"Excellent (6)",IF(K117&gt;=70,"Very Good (5)",IF(K117&gt;=55,"Good (4)",IF(K117&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M117" t="s">
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="2" t="str">
-        <f>IF(K118&gt;=85,"Excellent (6)",IF(K118&gt;=70,"Very Good (5)",IF(K118&gt;=55,"Good (4)",IF(K118&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M118" t="s">
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="2" t="str">
-        <f>IF(K119&gt;=85,"Excellent (6)",IF(K119&gt;=70,"Very Good (5)",IF(K119&gt;=55,"Good (4)",IF(K119&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M119" t="s">
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="2" t="str">
-        <f>IF(K120&gt;=85,"Excellent (6)",IF(K120&gt;=70,"Very Good (5)",IF(K120&gt;=55,"Good (4)",IF(K120&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M120" t="s">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="2" t="str">
-        <f>IF(K121&gt;=85,"Excellent (6)",IF(K121&gt;=70,"Very Good (5)",IF(K121&gt;=55,"Good (4)",IF(K121&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M121" t="s">
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="2" t="str">
-        <f>IF(K122&gt;=85,"Excellent (6)",IF(K122&gt;=70,"Very Good (5)",IF(K122&gt;=55,"Good (4)",IF(K122&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M122" t="s">
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="2" t="str">
-        <f>IF(K123&gt;=85,"Excellent (6)",IF(K123&gt;=70,"Very Good (5)",IF(K123&gt;=55,"Good (4)",IF(K123&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M123" t="s">
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="2" t="str">
-        <f>IF(K124&gt;=85,"Excellent (6)",IF(K124&gt;=70,"Very Good (5)",IF(K124&gt;=55,"Good (4)",IF(K124&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M124" t="s">
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="2" t="str">
-        <f>IF(K125&gt;=85,"Excellent (6)",IF(K125&gt;=70,"Very Good (5)",IF(K125&gt;=55,"Good (4)",IF(K125&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M125" t="s">
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="2" t="str">
-        <f>IF(K126&gt;=85,"Excellent (6)",IF(K126&gt;=70,"Very Good (5)",IF(K126&gt;=55,"Good (4)",IF(K126&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M126" t="s">
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="2" t="str">
-        <f>IF(K127&gt;=85,"Excellent (6)",IF(K127&gt;=70,"Very Good (5)",IF(K127&gt;=55,"Good (4)",IF(K127&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M127" t="s">
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="2" t="str">
-        <f>IF(K128&gt;=85,"Excellent (6)",IF(K128&gt;=70,"Very Good (5)",IF(K128&gt;=55,"Good (4)",IF(K128&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M128" t="s">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="2" t="str">
-        <f>IF(K129&gt;=85,"Excellent (6)",IF(K129&gt;=70,"Very Good (5)",IF(K129&gt;=55,"Good (4)",IF(K129&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M129" t="s">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="2" t="str">
-        <f>IF(K130&gt;=85,"Excellent (6)",IF(K130&gt;=70,"Very Good (5)",IF(K130&gt;=55,"Good (4)",IF(K130&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L130:L193" si="2">IF(K130&gt;=85,"Excellent (6)",IF(K130&gt;=70,"Very Good (5)",IF(K130&gt;=55,"Good (4)",IF(K130&gt;=40,"Average (3)","-"))))</f>
         <v>-</v>
       </c>
       <c r="M130" t="s">
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="2" t="str">
-        <f>IF(K131&gt;=85,"Excellent (6)",IF(K131&gt;=70,"Very Good (5)",IF(K131&gt;=55,"Good (4)",IF(K131&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M131" t="s">
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="2" t="str">
-        <f>IF(K132&gt;=85,"Excellent (6)",IF(K132&gt;=70,"Very Good (5)",IF(K132&gt;=55,"Good (4)",IF(K132&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M132" t="s">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="L133" s="2" t="str">
-        <f>IF(K133&gt;=85,"Excellent (6)",IF(K133&gt;=70,"Very Good (5)",IF(K133&gt;=55,"Good (4)",IF(K133&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M133" t="s">
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="2" t="str">
-        <f>IF(K134&gt;=85,"Excellent (6)",IF(K134&gt;=70,"Very Good (5)",IF(K134&gt;=55,"Good (4)",IF(K134&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M134" t="s">
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="2" t="str">
-        <f>IF(K135&gt;=85,"Excellent (6)",IF(K135&gt;=70,"Very Good (5)",IF(K135&gt;=55,"Good (4)",IF(K135&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M135" t="s">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="2" t="str">
-        <f>IF(K136&gt;=85,"Excellent (6)",IF(K136&gt;=70,"Very Good (5)",IF(K136&gt;=55,"Good (4)",IF(K136&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M136" t="s">
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="2" t="str">
-        <f>IF(K137&gt;=85,"Excellent (6)",IF(K137&gt;=70,"Very Good (5)",IF(K137&gt;=55,"Good (4)",IF(K137&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M137" t="s">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="2" t="str">
-        <f>IF(K138&gt;=85,"Excellent (6)",IF(K138&gt;=70,"Very Good (5)",IF(K138&gt;=55,"Good (4)",IF(K138&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M138" t="s">
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="2" t="str">
-        <f>IF(K139&gt;=85,"Excellent (6)",IF(K139&gt;=70,"Very Good (5)",IF(K139&gt;=55,"Good (4)",IF(K139&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M139" t="s">
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="2" t="str">
-        <f>IF(K140&gt;=85,"Excellent (6)",IF(K140&gt;=70,"Very Good (5)",IF(K140&gt;=55,"Good (4)",IF(K140&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M140" t="s">
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="2" t="str">
-        <f>IF(K141&gt;=85,"Excellent (6)",IF(K141&gt;=70,"Very Good (5)",IF(K141&gt;=55,"Good (4)",IF(K141&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M141" t="s">
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="2" t="str">
-        <f>IF(K142&gt;=85,"Excellent (6)",IF(K142&gt;=70,"Very Good (5)",IF(K142&gt;=55,"Good (4)",IF(K142&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M142" t="s">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="2" t="str">
-        <f>IF(K143&gt;=85,"Excellent (6)",IF(K143&gt;=70,"Very Good (5)",IF(K143&gt;=55,"Good (4)",IF(K143&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M143" t="s">
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="2" t="str">
-        <f>IF(K144&gt;=85,"Excellent (6)",IF(K144&gt;=70,"Very Good (5)",IF(K144&gt;=55,"Good (4)",IF(K144&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M144" t="s">
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="2" t="str">
-        <f>IF(K145&gt;=85,"Excellent (6)",IF(K145&gt;=70,"Very Good (5)",IF(K145&gt;=55,"Good (4)",IF(K145&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M145" t="s">
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="2" t="str">
-        <f>IF(K146&gt;=85,"Excellent (6)",IF(K146&gt;=70,"Very Good (5)",IF(K146&gt;=55,"Good (4)",IF(K146&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M146" t="s">
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="2" t="str">
-        <f>IF(K147&gt;=85,"Excellent (6)",IF(K147&gt;=70,"Very Good (5)",IF(K147&gt;=55,"Good (4)",IF(K147&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M147" t="s">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="2" t="str">
-        <f>IF(K148&gt;=85,"Excellent (6)",IF(K148&gt;=70,"Very Good (5)",IF(K148&gt;=55,"Good (4)",IF(K148&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M148" t="s">
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="2" t="str">
-        <f>IF(K149&gt;=85,"Excellent (6)",IF(K149&gt;=70,"Very Good (5)",IF(K149&gt;=55,"Good (4)",IF(K149&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M149" t="s">
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="2" t="str">
-        <f>IF(K150&gt;=85,"Excellent (6)",IF(K150&gt;=70,"Very Good (5)",IF(K150&gt;=55,"Good (4)",IF(K150&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M150" t="s">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="L151" s="2" t="str">
-        <f>IF(K151&gt;=85,"Excellent (6)",IF(K151&gt;=70,"Very Good (5)",IF(K151&gt;=55,"Good (4)",IF(K151&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M151" t="s">
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="2" t="str">
-        <f>IF(K152&gt;=85,"Excellent (6)",IF(K152&gt;=70,"Very Good (5)",IF(K152&gt;=55,"Good (4)",IF(K152&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M152" t="s">
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="2" t="str">
-        <f>IF(K153&gt;=85,"Excellent (6)",IF(K153&gt;=70,"Very Good (5)",IF(K153&gt;=55,"Good (4)",IF(K153&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M153" t="s">
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="2" t="str">
-        <f>IF(K154&gt;=85,"Excellent (6)",IF(K154&gt;=70,"Very Good (5)",IF(K154&gt;=55,"Good (4)",IF(K154&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M154" t="s">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="L155" s="2" t="str">
-        <f>IF(K155&gt;=85,"Excellent (6)",IF(K155&gt;=70,"Very Good (5)",IF(K155&gt;=55,"Good (4)",IF(K155&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M155" t="s">
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="L156" s="2" t="str">
-        <f>IF(K156&gt;=85,"Excellent (6)",IF(K156&gt;=70,"Very Good (5)",IF(K156&gt;=55,"Good (4)",IF(K156&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M156" t="s">
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="L157" s="2" t="str">
-        <f>IF(K157&gt;=85,"Excellent (6)",IF(K157&gt;=70,"Very Good (5)",IF(K157&gt;=55,"Good (4)",IF(K157&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M157" t="s">
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="L158" s="2" t="str">
-        <f>IF(K158&gt;=85,"Excellent (6)",IF(K158&gt;=70,"Very Good (5)",IF(K158&gt;=55,"Good (4)",IF(K158&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M158" t="s">
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="L159" s="2" t="str">
-        <f>IF(K159&gt;=85,"Excellent (6)",IF(K159&gt;=70,"Very Good (5)",IF(K159&gt;=55,"Good (4)",IF(K159&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M159" t="s">
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="L160" s="2" t="str">
-        <f>IF(K160&gt;=85,"Excellent (6)",IF(K160&gt;=70,"Very Good (5)",IF(K160&gt;=55,"Good (4)",IF(K160&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M160" t="s">
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="L161" s="2" t="str">
-        <f>IF(K161&gt;=85,"Excellent (6)",IF(K161&gt;=70,"Very Good (5)",IF(K161&gt;=55,"Good (4)",IF(K161&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M161" t="s">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="L162" s="2" t="str">
-        <f>IF(K162&gt;=85,"Excellent (6)",IF(K162&gt;=70,"Very Good (5)",IF(K162&gt;=55,"Good (4)",IF(K162&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M162" t="s">
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="2" t="str">
-        <f>IF(K163&gt;=85,"Excellent (6)",IF(K163&gt;=70,"Very Good (5)",IF(K163&gt;=55,"Good (4)",IF(K163&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M163" t="s">
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="L164" s="2" t="str">
-        <f>IF(K164&gt;=85,"Excellent (6)",IF(K164&gt;=70,"Very Good (5)",IF(K164&gt;=55,"Good (4)",IF(K164&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M164" t="s">
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="L165" s="2" t="str">
-        <f>IF(K165&gt;=85,"Excellent (6)",IF(K165&gt;=70,"Very Good (5)",IF(K165&gt;=55,"Good (4)",IF(K165&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M165" t="s">
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="2" t="str">
-        <f>IF(K166&gt;=85,"Excellent (6)",IF(K166&gt;=70,"Very Good (5)",IF(K166&gt;=55,"Good (4)",IF(K166&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M166" t="s">
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="L167" s="2" t="str">
-        <f>IF(K167&gt;=85,"Excellent (6)",IF(K167&gt;=70,"Very Good (5)",IF(K167&gt;=55,"Good (4)",IF(K167&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M167" t="s">
@@ -12867,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="2" t="str">
-        <f>IF(K168&gt;=85,"Excellent (6)",IF(K168&gt;=70,"Very Good (5)",IF(K168&gt;=55,"Good (4)",IF(K168&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M168" t="s">
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="2" t="str">
-        <f>IF(K169&gt;=85,"Excellent (6)",IF(K169&gt;=70,"Very Good (5)",IF(K169&gt;=55,"Good (4)",IF(K169&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M169" t="s">
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="2" t="str">
-        <f>IF(K170&gt;=85,"Excellent (6)",IF(K170&gt;=70,"Very Good (5)",IF(K170&gt;=55,"Good (4)",IF(K170&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M170" t="s">
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="2" t="str">
-        <f>IF(K171&gt;=85,"Excellent (6)",IF(K171&gt;=70,"Very Good (5)",IF(K171&gt;=55,"Good (4)",IF(K171&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M171" t="s">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="2" t="str">
-        <f>IF(K172&gt;=85,"Excellent (6)",IF(K172&gt;=70,"Very Good (5)",IF(K172&gt;=55,"Good (4)",IF(K172&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M172" t="s">
@@ -13057,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="L173" s="2" t="str">
-        <f>IF(K173&gt;=85,"Excellent (6)",IF(K173&gt;=70,"Very Good (5)",IF(K173&gt;=55,"Good (4)",IF(K173&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M173" t="s">
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="L174" s="2" t="str">
-        <f>IF(K174&gt;=85,"Excellent (6)",IF(K174&gt;=70,"Very Good (5)",IF(K174&gt;=55,"Good (4)",IF(K174&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M174" t="s">
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="L175" s="2" t="str">
-        <f>IF(K175&gt;=85,"Excellent (6)",IF(K175&gt;=70,"Very Good (5)",IF(K175&gt;=55,"Good (4)",IF(K175&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M175" t="s">
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="2" t="str">
-        <f>IF(K176&gt;=85,"Excellent (6)",IF(K176&gt;=70,"Very Good (5)",IF(K176&gt;=55,"Good (4)",IF(K176&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M176" t="s">
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="L177" s="2" t="str">
-        <f>IF(K177&gt;=85,"Excellent (6)",IF(K177&gt;=70,"Very Good (5)",IF(K177&gt;=55,"Good (4)",IF(K177&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M177" t="s">
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="L178" s="2" t="str">
-        <f>IF(K178&gt;=85,"Excellent (6)",IF(K178&gt;=70,"Very Good (5)",IF(K178&gt;=55,"Good (4)",IF(K178&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M178" t="s">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="L179" s="2" t="str">
-        <f>IF(K179&gt;=85,"Excellent (6)",IF(K179&gt;=70,"Very Good (5)",IF(K179&gt;=55,"Good (4)",IF(K179&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M179" t="s">
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="L180" s="2" t="str">
-        <f>IF(K180&gt;=85,"Excellent (6)",IF(K180&gt;=70,"Very Good (5)",IF(K180&gt;=55,"Good (4)",IF(K180&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M180" t="s">
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="L181" s="2" t="str">
-        <f>IF(K181&gt;=85,"Excellent (6)",IF(K181&gt;=70,"Very Good (5)",IF(K181&gt;=55,"Good (4)",IF(K181&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M181" t="s">
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="L182" s="2" t="str">
-        <f>IF(K182&gt;=85,"Excellent (6)",IF(K182&gt;=70,"Very Good (5)",IF(K182&gt;=55,"Good (4)",IF(K182&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M182" t="s">
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="L183" s="2" t="str">
-        <f>IF(K183&gt;=85,"Excellent (6)",IF(K183&gt;=70,"Very Good (5)",IF(K183&gt;=55,"Good (4)",IF(K183&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M183" t="s">
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="L184" s="2" t="str">
-        <f>IF(K184&gt;=85,"Excellent (6)",IF(K184&gt;=70,"Very Good (5)",IF(K184&gt;=55,"Good (4)",IF(K184&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M184" t="s">
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="L185" s="2" t="str">
-        <f>IF(K185&gt;=85,"Excellent (6)",IF(K185&gt;=70,"Very Good (5)",IF(K185&gt;=55,"Good (4)",IF(K185&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M185" t="s">
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L186" s="2" t="str">
-        <f>IF(K186&gt;=85,"Excellent (6)",IF(K186&gt;=70,"Very Good (5)",IF(K186&gt;=55,"Good (4)",IF(K186&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M186" t="s">
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="L187" s="2" t="str">
-        <f>IF(K187&gt;=85,"Excellent (6)",IF(K187&gt;=70,"Very Good (5)",IF(K187&gt;=55,"Good (4)",IF(K187&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M187" t="s">
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="L188" s="2" t="str">
-        <f>IF(K188&gt;=85,"Excellent (6)",IF(K188&gt;=70,"Very Good (5)",IF(K188&gt;=55,"Good (4)",IF(K188&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M188" t="s">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="L189" s="2" t="str">
-        <f>IF(K189&gt;=85,"Excellent (6)",IF(K189&gt;=70,"Very Good (5)",IF(K189&gt;=55,"Good (4)",IF(K189&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M189" t="s">
@@ -13703,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="L190" s="2" t="str">
-        <f>IF(K190&gt;=85,"Excellent (6)",IF(K190&gt;=70,"Very Good (5)",IF(K190&gt;=55,"Good (4)",IF(K190&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M190" t="s">
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="L191" s="2" t="str">
-        <f>IF(K191&gt;=85,"Excellent (6)",IF(K191&gt;=70,"Very Good (5)",IF(K191&gt;=55,"Good (4)",IF(K191&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M191" t="s">
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="L192" s="2" t="str">
-        <f>IF(K192&gt;=85,"Excellent (6)",IF(K192&gt;=70,"Very Good (5)",IF(K192&gt;=55,"Good (4)",IF(K192&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M192" t="s">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="L193" s="2" t="str">
-        <f>IF(K193&gt;=85,"Excellent (6)",IF(K193&gt;=70,"Very Good (5)",IF(K193&gt;=55,"Good (4)",IF(K193&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="M193" t="s">
@@ -13855,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="L194" s="2" t="str">
-        <f>IF(K194&gt;=85,"Excellent (6)",IF(K194&gt;=70,"Very Good (5)",IF(K194&gt;=55,"Good (4)",IF(K194&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L194:L257" si="3">IF(K194&gt;=85,"Excellent (6)",IF(K194&gt;=70,"Very Good (5)",IF(K194&gt;=55,"Good (4)",IF(K194&gt;=40,"Average (3)","-"))))</f>
         <v>-</v>
       </c>
       <c r="M194" t="s">
@@ -13893,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="L195" s="2" t="str">
-        <f>IF(K195&gt;=85,"Excellent (6)",IF(K195&gt;=70,"Very Good (5)",IF(K195&gt;=55,"Good (4)",IF(K195&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M195" t="s">
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="L196" s="2" t="str">
-        <f>IF(K196&gt;=85,"Excellent (6)",IF(K196&gt;=70,"Very Good (5)",IF(K196&gt;=55,"Good (4)",IF(K196&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M196" t="s">
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="L197" s="2" t="str">
-        <f>IF(K197&gt;=85,"Excellent (6)",IF(K197&gt;=70,"Very Good (5)",IF(K197&gt;=55,"Good (4)",IF(K197&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M197" t="s">
@@ -14007,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="L198" s="2" t="str">
-        <f>IF(K198&gt;=85,"Excellent (6)",IF(K198&gt;=70,"Very Good (5)",IF(K198&gt;=55,"Good (4)",IF(K198&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M198" t="s">
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="L199" s="2" t="str">
-        <f>IF(K199&gt;=85,"Excellent (6)",IF(K199&gt;=70,"Very Good (5)",IF(K199&gt;=55,"Good (4)",IF(K199&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M199" t="s">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="L200" s="2" t="str">
-        <f>IF(K200&gt;=85,"Excellent (6)",IF(K200&gt;=70,"Very Good (5)",IF(K200&gt;=55,"Good (4)",IF(K200&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M200" t="s">
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="L201" s="2" t="str">
-        <f>IF(K201&gt;=85,"Excellent (6)",IF(K201&gt;=70,"Very Good (5)",IF(K201&gt;=55,"Good (4)",IF(K201&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M201" t="s">
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="L202" s="2" t="str">
-        <f>IF(K202&gt;=85,"Excellent (6)",IF(K202&gt;=70,"Very Good (5)",IF(K202&gt;=55,"Good (4)",IF(K202&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M202" t="s">
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="L203" s="2" t="str">
-        <f>IF(K203&gt;=85,"Excellent (6)",IF(K203&gt;=70,"Very Good (5)",IF(K203&gt;=55,"Good (4)",IF(K203&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M203" t="s">
@@ -14235,7 +14235,7 @@
         <v>0</v>
       </c>
       <c r="L204" s="2" t="str">
-        <f>IF(K204&gt;=85,"Excellent (6)",IF(K204&gt;=70,"Very Good (5)",IF(K204&gt;=55,"Good (4)",IF(K204&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M204" t="s">
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="L205" s="2" t="str">
-        <f>IF(K205&gt;=85,"Excellent (6)",IF(K205&gt;=70,"Very Good (5)",IF(K205&gt;=55,"Good (4)",IF(K205&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M205" t="s">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="L206" s="2" t="str">
-        <f>IF(K206&gt;=85,"Excellent (6)",IF(K206&gt;=70,"Very Good (5)",IF(K206&gt;=55,"Good (4)",IF(K206&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M206" t="s">
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="L207" s="2" t="str">
-        <f>IF(K207&gt;=85,"Excellent (6)",IF(K207&gt;=70,"Very Good (5)",IF(K207&gt;=55,"Good (4)",IF(K207&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M207" t="s">
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="L208" s="2" t="str">
-        <f>IF(K208&gt;=85,"Excellent (6)",IF(K208&gt;=70,"Very Good (5)",IF(K208&gt;=55,"Good (4)",IF(K208&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M208" t="s">
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="L209" s="2" t="str">
-        <f>IF(K209&gt;=85,"Excellent (6)",IF(K209&gt;=70,"Very Good (5)",IF(K209&gt;=55,"Good (4)",IF(K209&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M209" t="s">
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="L210" s="2" t="str">
-        <f>IF(K210&gt;=85,"Excellent (6)",IF(K210&gt;=70,"Very Good (5)",IF(K210&gt;=55,"Good (4)",IF(K210&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M210" t="s">
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="L211" s="2" t="str">
-        <f>IF(K211&gt;=85,"Excellent (6)",IF(K211&gt;=70,"Very Good (5)",IF(K211&gt;=55,"Good (4)",IF(K211&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M211" t="s">
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="L212" s="2" t="str">
-        <f>IF(K212&gt;=85,"Excellent (6)",IF(K212&gt;=70,"Very Good (5)",IF(K212&gt;=55,"Good (4)",IF(K212&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M212" t="s">
@@ -14577,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="L213" s="2" t="str">
-        <f>IF(K213&gt;=85,"Excellent (6)",IF(K213&gt;=70,"Very Good (5)",IF(K213&gt;=55,"Good (4)",IF(K213&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M213" t="s">
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="L214" s="2" t="str">
-        <f>IF(K214&gt;=85,"Excellent (6)",IF(K214&gt;=70,"Very Good (5)",IF(K214&gt;=55,"Good (4)",IF(K214&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M214" t="s">
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="L215" s="2" t="str">
-        <f>IF(K215&gt;=85,"Excellent (6)",IF(K215&gt;=70,"Very Good (5)",IF(K215&gt;=55,"Good (4)",IF(K215&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M215" t="s">
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="2" t="str">
-        <f>IF(K216&gt;=85,"Excellent (6)",IF(K216&gt;=70,"Very Good (5)",IF(K216&gt;=55,"Good (4)",IF(K216&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M216" t="s">
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="L217" s="2" t="str">
-        <f>IF(K217&gt;=85,"Excellent (6)",IF(K217&gt;=70,"Very Good (5)",IF(K217&gt;=55,"Good (4)",IF(K217&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M217" t="s">
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="L218" s="2" t="str">
-        <f>IF(K218&gt;=85,"Excellent (6)",IF(K218&gt;=70,"Very Good (5)",IF(K218&gt;=55,"Good (4)",IF(K218&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M218" t="s">
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="L219" s="2" t="str">
-        <f>IF(K219&gt;=85,"Excellent (6)",IF(K219&gt;=70,"Very Good (5)",IF(K219&gt;=55,"Good (4)",IF(K219&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M219" t="s">
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="L220" s="2" t="str">
-        <f>IF(K220&gt;=85,"Excellent (6)",IF(K220&gt;=70,"Very Good (5)",IF(K220&gt;=55,"Good (4)",IF(K220&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M220" t="s">
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="2" t="str">
-        <f>IF(K221&gt;=85,"Excellent (6)",IF(K221&gt;=70,"Very Good (5)",IF(K221&gt;=55,"Good (4)",IF(K221&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M221" t="s">
@@ -14919,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="L222" s="2" t="str">
-        <f>IF(K222&gt;=85,"Excellent (6)",IF(K222&gt;=70,"Very Good (5)",IF(K222&gt;=55,"Good (4)",IF(K222&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M222" t="s">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="L223" s="2" t="str">
-        <f>IF(K223&gt;=85,"Excellent (6)",IF(K223&gt;=70,"Very Good (5)",IF(K223&gt;=55,"Good (4)",IF(K223&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M223" t="s">
@@ -14995,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="L224" s="2" t="str">
-        <f>IF(K224&gt;=85,"Excellent (6)",IF(K224&gt;=70,"Very Good (5)",IF(K224&gt;=55,"Good (4)",IF(K224&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M224" t="s">
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="L225" s="2" t="str">
-        <f>IF(K225&gt;=85,"Excellent (6)",IF(K225&gt;=70,"Very Good (5)",IF(K225&gt;=55,"Good (4)",IF(K225&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M225" t="s">
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="L226" s="2" t="str">
-        <f>IF(K226&gt;=85,"Excellent (6)",IF(K226&gt;=70,"Very Good (5)",IF(K226&gt;=55,"Good (4)",IF(K226&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M226" t="s">
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="L227" s="2" t="str">
-        <f>IF(K227&gt;=85,"Excellent (6)",IF(K227&gt;=70,"Very Good (5)",IF(K227&gt;=55,"Good (4)",IF(K227&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M227" t="s">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="L228" s="2" t="str">
-        <f>IF(K228&gt;=85,"Excellent (6)",IF(K228&gt;=70,"Very Good (5)",IF(K228&gt;=55,"Good (4)",IF(K228&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M228" t="s">
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="L229" s="2" t="str">
-        <f>IF(K229&gt;=85,"Excellent (6)",IF(K229&gt;=70,"Very Good (5)",IF(K229&gt;=55,"Good (4)",IF(K229&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M229" t="s">
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="L230" s="2" t="str">
-        <f>IF(K230&gt;=85,"Excellent (6)",IF(K230&gt;=70,"Very Good (5)",IF(K230&gt;=55,"Good (4)",IF(K230&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M230" t="s">
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="L231" s="2" t="str">
-        <f>IF(K231&gt;=85,"Excellent (6)",IF(K231&gt;=70,"Very Good (5)",IF(K231&gt;=55,"Good (4)",IF(K231&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M231" t="s">
@@ -15299,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="L232" s="2" t="str">
-        <f>IF(K232&gt;=85,"Excellent (6)",IF(K232&gt;=70,"Very Good (5)",IF(K232&gt;=55,"Good (4)",IF(K232&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M232" t="s">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="L233" s="2" t="str">
-        <f>IF(K233&gt;=85,"Excellent (6)",IF(K233&gt;=70,"Very Good (5)",IF(K233&gt;=55,"Good (4)",IF(K233&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M233" t="s">
@@ -15375,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="L234" s="2" t="str">
-        <f>IF(K234&gt;=85,"Excellent (6)",IF(K234&gt;=70,"Very Good (5)",IF(K234&gt;=55,"Good (4)",IF(K234&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M234" t="s">
@@ -15413,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="L235" s="2" t="str">
-        <f>IF(K235&gt;=85,"Excellent (6)",IF(K235&gt;=70,"Very Good (5)",IF(K235&gt;=55,"Good (4)",IF(K235&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M235" t="s">
@@ -15451,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="L236" s="2" t="str">
-        <f>IF(K236&gt;=85,"Excellent (6)",IF(K236&gt;=70,"Very Good (5)",IF(K236&gt;=55,"Good (4)",IF(K236&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M236" t="s">
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="L237" s="2" t="str">
-        <f>IF(K237&gt;=85,"Excellent (6)",IF(K237&gt;=70,"Very Good (5)",IF(K237&gt;=55,"Good (4)",IF(K237&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M237" t="s">
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="L238" s="2" t="str">
-        <f>IF(K238&gt;=85,"Excellent (6)",IF(K238&gt;=70,"Very Good (5)",IF(K238&gt;=55,"Good (4)",IF(K238&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M238" t="s">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="L239" s="2" t="str">
-        <f>IF(K239&gt;=85,"Excellent (6)",IF(K239&gt;=70,"Very Good (5)",IF(K239&gt;=55,"Good (4)",IF(K239&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M239" t="s">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="L240" s="2" t="str">
-        <f>IF(K240&gt;=85,"Excellent (6)",IF(K240&gt;=70,"Very Good (5)",IF(K240&gt;=55,"Good (4)",IF(K240&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M240" t="s">
@@ -15641,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="L241" s="2" t="str">
-        <f>IF(K241&gt;=85,"Excellent (6)",IF(K241&gt;=70,"Very Good (5)",IF(K241&gt;=55,"Good (4)",IF(K241&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M241" t="s">
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="L242" s="2" t="str">
-        <f>IF(K242&gt;=85,"Excellent (6)",IF(K242&gt;=70,"Very Good (5)",IF(K242&gt;=55,"Good (4)",IF(K242&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M242" t="s">
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="L243" s="2" t="str">
-        <f>IF(K243&gt;=85,"Excellent (6)",IF(K243&gt;=70,"Very Good (5)",IF(K243&gt;=55,"Good (4)",IF(K243&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M243" t="s">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="L244" s="2" t="str">
-        <f>IF(K244&gt;=85,"Excellent (6)",IF(K244&gt;=70,"Very Good (5)",IF(K244&gt;=55,"Good (4)",IF(K244&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M244" t="s">
@@ -15793,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="L245" s="2" t="str">
-        <f>IF(K245&gt;=85,"Excellent (6)",IF(K245&gt;=70,"Very Good (5)",IF(K245&gt;=55,"Good (4)",IF(K245&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M245" t="s">
@@ -15831,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="L246" s="2" t="str">
-        <f>IF(K246&gt;=85,"Excellent (6)",IF(K246&gt;=70,"Very Good (5)",IF(K246&gt;=55,"Good (4)",IF(K246&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M246" t="s">
@@ -15869,7 +15869,7 @@
         <v>0</v>
       </c>
       <c r="L247" s="2" t="str">
-        <f>IF(K247&gt;=85,"Excellent (6)",IF(K247&gt;=70,"Very Good (5)",IF(K247&gt;=55,"Good (4)",IF(K247&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M247" t="s">
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="L248" s="2" t="str">
-        <f>IF(K248&gt;=85,"Excellent (6)",IF(K248&gt;=70,"Very Good (5)",IF(K248&gt;=55,"Good (4)",IF(K248&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M248" t="s">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="L249" s="2" t="str">
-        <f>IF(K249&gt;=85,"Excellent (6)",IF(K249&gt;=70,"Very Good (5)",IF(K249&gt;=55,"Good (4)",IF(K249&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M249" t="s">
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="L250" s="2" t="str">
-        <f>IF(K250&gt;=85,"Excellent (6)",IF(K250&gt;=70,"Very Good (5)",IF(K250&gt;=55,"Good (4)",IF(K250&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M250" t="s">
@@ -16021,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="L251" s="2" t="str">
-        <f>IF(K251&gt;=85,"Excellent (6)",IF(K251&gt;=70,"Very Good (5)",IF(K251&gt;=55,"Good (4)",IF(K251&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M251" t="s">
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="L252" s="2" t="str">
-        <f>IF(K252&gt;=85,"Excellent (6)",IF(K252&gt;=70,"Very Good (5)",IF(K252&gt;=55,"Good (4)",IF(K252&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M252" t="s">
@@ -16097,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="L253" s="2" t="str">
-        <f>IF(K253&gt;=85,"Excellent (6)",IF(K253&gt;=70,"Very Good (5)",IF(K253&gt;=55,"Good (4)",IF(K253&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M253" t="s">
@@ -16135,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="L254" s="2" t="str">
-        <f>IF(K254&gt;=85,"Excellent (6)",IF(K254&gt;=70,"Very Good (5)",IF(K254&gt;=55,"Good (4)",IF(K254&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M254" t="s">
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="2" t="str">
-        <f>IF(K255&gt;=85,"Excellent (6)",IF(K255&gt;=70,"Very Good (5)",IF(K255&gt;=55,"Good (4)",IF(K255&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M255" t="s">
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="L256" s="2" t="str">
-        <f>IF(K256&gt;=85,"Excellent (6)",IF(K256&gt;=70,"Very Good (5)",IF(K256&gt;=55,"Good (4)",IF(K256&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M256" t="s">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="L257" s="2" t="str">
-        <f>IF(K257&gt;=85,"Excellent (6)",IF(K257&gt;=70,"Very Good (5)",IF(K257&gt;=55,"Good (4)",IF(K257&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="M257" t="s">
@@ -16287,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="L258" s="2" t="str">
-        <f>IF(K258&gt;=85,"Excellent (6)",IF(K258&gt;=70,"Very Good (5)",IF(K258&gt;=55,"Good (4)",IF(K258&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L258:L321" si="4">IF(K258&gt;=85,"Excellent (6)",IF(K258&gt;=70,"Very Good (5)",IF(K258&gt;=55,"Good (4)",IF(K258&gt;=40,"Average (3)","-"))))</f>
         <v>-</v>
       </c>
       <c r="M258" t="s">
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="L259" s="2" t="str">
-        <f>IF(K259&gt;=85,"Excellent (6)",IF(K259&gt;=70,"Very Good (5)",IF(K259&gt;=55,"Good (4)",IF(K259&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M259" t="s">
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="L260" s="2" t="str">
-        <f>IF(K260&gt;=85,"Excellent (6)",IF(K260&gt;=70,"Very Good (5)",IF(K260&gt;=55,"Good (4)",IF(K260&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M260" t="s">
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="L261" s="2" t="str">
-        <f>IF(K261&gt;=85,"Excellent (6)",IF(K261&gt;=70,"Very Good (5)",IF(K261&gt;=55,"Good (4)",IF(K261&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M261" t="s">
@@ -16439,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="L262" s="2" t="str">
-        <f>IF(K262&gt;=85,"Excellent (6)",IF(K262&gt;=70,"Very Good (5)",IF(K262&gt;=55,"Good (4)",IF(K262&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M262" t="s">
@@ -16477,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="L263" s="2" t="str">
-        <f>IF(K263&gt;=85,"Excellent (6)",IF(K263&gt;=70,"Very Good (5)",IF(K263&gt;=55,"Good (4)",IF(K263&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M263" t="s">
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="L264" s="2" t="str">
-        <f>IF(K264&gt;=85,"Excellent (6)",IF(K264&gt;=70,"Very Good (5)",IF(K264&gt;=55,"Good (4)",IF(K264&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M264" t="s">
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="L265" s="2" t="str">
-        <f>IF(K265&gt;=85,"Excellent (6)",IF(K265&gt;=70,"Very Good (5)",IF(K265&gt;=55,"Good (4)",IF(K265&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M265" t="s">
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="L266" s="2" t="str">
-        <f>IF(K266&gt;=85,"Excellent (6)",IF(K266&gt;=70,"Very Good (5)",IF(K266&gt;=55,"Good (4)",IF(K266&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M266" t="s">
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="L267" s="2" t="str">
-        <f>IF(K267&gt;=85,"Excellent (6)",IF(K267&gt;=70,"Very Good (5)",IF(K267&gt;=55,"Good (4)",IF(K267&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M267" t="s">
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="L268" s="2" t="str">
-        <f>IF(K268&gt;=85,"Excellent (6)",IF(K268&gt;=70,"Very Good (5)",IF(K268&gt;=55,"Good (4)",IF(K268&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M268" t="s">
@@ -16705,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="L269" s="2" t="str">
-        <f>IF(K269&gt;=85,"Excellent (6)",IF(K269&gt;=70,"Very Good (5)",IF(K269&gt;=55,"Good (4)",IF(K269&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M269" t="s">
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="L270" s="2" t="str">
-        <f>IF(K270&gt;=85,"Excellent (6)",IF(K270&gt;=70,"Very Good (5)",IF(K270&gt;=55,"Good (4)",IF(K270&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M270" t="s">
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="L271" s="2" t="str">
-        <f>IF(K271&gt;=85,"Excellent (6)",IF(K271&gt;=70,"Very Good (5)",IF(K271&gt;=55,"Good (4)",IF(K271&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M271" t="s">
@@ -16819,7 +16819,7 @@
         <v>0</v>
       </c>
       <c r="L272" s="2" t="str">
-        <f>IF(K272&gt;=85,"Excellent (6)",IF(K272&gt;=70,"Very Good (5)",IF(K272&gt;=55,"Good (4)",IF(K272&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M272" t="s">
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="L273" s="2" t="str">
-        <f>IF(K273&gt;=85,"Excellent (6)",IF(K273&gt;=70,"Very Good (5)",IF(K273&gt;=55,"Good (4)",IF(K273&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M273" t="s">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="L274" s="2" t="str">
-        <f>IF(K274&gt;=85,"Excellent (6)",IF(K274&gt;=70,"Very Good (5)",IF(K274&gt;=55,"Good (4)",IF(K274&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M274" t="s">
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="L275" s="2" t="str">
-        <f>IF(K275&gt;=85,"Excellent (6)",IF(K275&gt;=70,"Very Good (5)",IF(K275&gt;=55,"Good (4)",IF(K275&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M275" t="s">
@@ -16971,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="L276" s="2" t="str">
-        <f>IF(K276&gt;=85,"Excellent (6)",IF(K276&gt;=70,"Very Good (5)",IF(K276&gt;=55,"Good (4)",IF(K276&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M276" t="s">
@@ -17009,7 +17009,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="2" t="str">
-        <f>IF(K277&gt;=85,"Excellent (6)",IF(K277&gt;=70,"Very Good (5)",IF(K277&gt;=55,"Good (4)",IF(K277&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M277" t="s">
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="L278" s="2" t="str">
-        <f>IF(K278&gt;=85,"Excellent (6)",IF(K278&gt;=70,"Very Good (5)",IF(K278&gt;=55,"Good (4)",IF(K278&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M278" t="s">
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="L279" s="2" t="str">
-        <f>IF(K279&gt;=85,"Excellent (6)",IF(K279&gt;=70,"Very Good (5)",IF(K279&gt;=55,"Good (4)",IF(K279&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M279" t="s">
@@ -17123,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="L280" s="2" t="str">
-        <f>IF(K280&gt;=85,"Excellent (6)",IF(K280&gt;=70,"Very Good (5)",IF(K280&gt;=55,"Good (4)",IF(K280&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M280" t="s">
@@ -17161,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="L281" s="2" t="str">
-        <f>IF(K281&gt;=85,"Excellent (6)",IF(K281&gt;=70,"Very Good (5)",IF(K281&gt;=55,"Good (4)",IF(K281&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M281" t="s">
@@ -17199,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="L282" s="2" t="str">
-        <f>IF(K282&gt;=85,"Excellent (6)",IF(K282&gt;=70,"Very Good (5)",IF(K282&gt;=55,"Good (4)",IF(K282&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M282" t="s">
@@ -17237,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="L283" s="2" t="str">
-        <f>IF(K283&gt;=85,"Excellent (6)",IF(K283&gt;=70,"Very Good (5)",IF(K283&gt;=55,"Good (4)",IF(K283&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M283" t="s">
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="L284" s="2" t="str">
-        <f>IF(K284&gt;=85,"Excellent (6)",IF(K284&gt;=70,"Very Good (5)",IF(K284&gt;=55,"Good (4)",IF(K284&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M284" t="s">
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="L285" s="2" t="str">
-        <f>IF(K285&gt;=85,"Excellent (6)",IF(K285&gt;=70,"Very Good (5)",IF(K285&gt;=55,"Good (4)",IF(K285&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M285" t="s">
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="L286" s="2" t="str">
-        <f>IF(K286&gt;=85,"Excellent (6)",IF(K286&gt;=70,"Very Good (5)",IF(K286&gt;=55,"Good (4)",IF(K286&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M286" t="s">
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="L287" s="2" t="str">
-        <f>IF(K287&gt;=85,"Excellent (6)",IF(K287&gt;=70,"Very Good (5)",IF(K287&gt;=55,"Good (4)",IF(K287&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M287" t="s">
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="L288" s="2" t="str">
-        <f>IF(K288&gt;=85,"Excellent (6)",IF(K288&gt;=70,"Very Good (5)",IF(K288&gt;=55,"Good (4)",IF(K288&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M288" t="s">
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="L289" s="2" t="str">
-        <f>IF(K289&gt;=85,"Excellent (6)",IF(K289&gt;=70,"Very Good (5)",IF(K289&gt;=55,"Good (4)",IF(K289&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M289" t="s">
@@ -17503,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="L290" s="2" t="str">
-        <f>IF(K290&gt;=85,"Excellent (6)",IF(K290&gt;=70,"Very Good (5)",IF(K290&gt;=55,"Good (4)",IF(K290&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M290" t="s">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="L291" s="2" t="str">
-        <f>IF(K291&gt;=85,"Excellent (6)",IF(K291&gt;=70,"Very Good (5)",IF(K291&gt;=55,"Good (4)",IF(K291&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M291" t="s">
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="L292" s="2" t="str">
-        <f>IF(K292&gt;=85,"Excellent (6)",IF(K292&gt;=70,"Very Good (5)",IF(K292&gt;=55,"Good (4)",IF(K292&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M292" t="s">
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="L293" s="2" t="str">
-        <f>IF(K293&gt;=85,"Excellent (6)",IF(K293&gt;=70,"Very Good (5)",IF(K293&gt;=55,"Good (4)",IF(K293&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M293" t="s">
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="L294" s="2" t="str">
-        <f>IF(K294&gt;=85,"Excellent (6)",IF(K294&gt;=70,"Very Good (5)",IF(K294&gt;=55,"Good (4)",IF(K294&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M294" t="s">
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="L295" s="2" t="str">
-        <f>IF(K295&gt;=85,"Excellent (6)",IF(K295&gt;=70,"Very Good (5)",IF(K295&gt;=55,"Good (4)",IF(K295&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M295" t="s">
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="L296" s="2" t="str">
-        <f>IF(K296&gt;=85,"Excellent (6)",IF(K296&gt;=70,"Very Good (5)",IF(K296&gt;=55,"Good (4)",IF(K296&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M296" t="s">
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="L297" s="2" t="str">
-        <f>IF(K297&gt;=85,"Excellent (6)",IF(K297&gt;=70,"Very Good (5)",IF(K297&gt;=55,"Good (4)",IF(K297&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M297" t="s">
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="L298" s="2" t="str">
-        <f>IF(K298&gt;=85,"Excellent (6)",IF(K298&gt;=70,"Very Good (5)",IF(K298&gt;=55,"Good (4)",IF(K298&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M298" t="s">
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
       <c r="L299" s="2" t="str">
-        <f>IF(K299&gt;=85,"Excellent (6)",IF(K299&gt;=70,"Very Good (5)",IF(K299&gt;=55,"Good (4)",IF(K299&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M299" t="s">
@@ -17883,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="L300" s="2" t="str">
-        <f>IF(K300&gt;=85,"Excellent (6)",IF(K300&gt;=70,"Very Good (5)",IF(K300&gt;=55,"Good (4)",IF(K300&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M300" t="s">
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="L301" s="2" t="str">
-        <f>IF(K301&gt;=85,"Excellent (6)",IF(K301&gt;=70,"Very Good (5)",IF(K301&gt;=55,"Good (4)",IF(K301&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M301" t="s">
@@ -17959,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="L302" s="2" t="str">
-        <f>IF(K302&gt;=85,"Excellent (6)",IF(K302&gt;=70,"Very Good (5)",IF(K302&gt;=55,"Good (4)",IF(K302&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M302" t="s">
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="L303" s="2" t="str">
-        <f>IF(K303&gt;=85,"Excellent (6)",IF(K303&gt;=70,"Very Good (5)",IF(K303&gt;=55,"Good (4)",IF(K303&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M303" t="s">
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="L304" s="2" t="str">
-        <f>IF(K304&gt;=85,"Excellent (6)",IF(K304&gt;=70,"Very Good (5)",IF(K304&gt;=55,"Good (4)",IF(K304&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M304" t="s">
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="L305" s="2" t="str">
-        <f>IF(K305&gt;=85,"Excellent (6)",IF(K305&gt;=70,"Very Good (5)",IF(K305&gt;=55,"Good (4)",IF(K305&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M305" t="s">
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="L306" s="2" t="str">
-        <f>IF(K306&gt;=85,"Excellent (6)",IF(K306&gt;=70,"Very Good (5)",IF(K306&gt;=55,"Good (4)",IF(K306&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M306" t="s">
@@ -18149,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="L307" s="2" t="str">
-        <f>IF(K307&gt;=85,"Excellent (6)",IF(K307&gt;=70,"Very Good (5)",IF(K307&gt;=55,"Good (4)",IF(K307&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M307" t="s">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="L308" s="2" t="str">
-        <f>IF(K308&gt;=85,"Excellent (6)",IF(K308&gt;=70,"Very Good (5)",IF(K308&gt;=55,"Good (4)",IF(K308&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M308" t="s">
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="L309" s="2" t="str">
-        <f>IF(K309&gt;=85,"Excellent (6)",IF(K309&gt;=70,"Very Good (5)",IF(K309&gt;=55,"Good (4)",IF(K309&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M309" t="s">
@@ -18263,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="L310" s="2" t="str">
-        <f>IF(K310&gt;=85,"Excellent (6)",IF(K310&gt;=70,"Very Good (5)",IF(K310&gt;=55,"Good (4)",IF(K310&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M310" t="s">
@@ -18301,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="L311" s="2" t="str">
-        <f>IF(K311&gt;=85,"Excellent (6)",IF(K311&gt;=70,"Very Good (5)",IF(K311&gt;=55,"Good (4)",IF(K311&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M311" t="s">
@@ -18339,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="L312" s="2" t="str">
-        <f>IF(K312&gt;=85,"Excellent (6)",IF(K312&gt;=70,"Very Good (5)",IF(K312&gt;=55,"Good (4)",IF(K312&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M312" t="s">
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="L313" s="2" t="str">
-        <f>IF(K313&gt;=85,"Excellent (6)",IF(K313&gt;=70,"Very Good (5)",IF(K313&gt;=55,"Good (4)",IF(K313&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M313" t="s">
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="L314" s="2" t="str">
-        <f>IF(K314&gt;=85,"Excellent (6)",IF(K314&gt;=70,"Very Good (5)",IF(K314&gt;=55,"Good (4)",IF(K314&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M314" t="s">
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="L315" s="2" t="str">
-        <f>IF(K315&gt;=85,"Excellent (6)",IF(K315&gt;=70,"Very Good (5)",IF(K315&gt;=55,"Good (4)",IF(K315&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M315" t="s">
@@ -18491,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="L316" s="2" t="str">
-        <f>IF(K316&gt;=85,"Excellent (6)",IF(K316&gt;=70,"Very Good (5)",IF(K316&gt;=55,"Good (4)",IF(K316&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M316" t="s">
@@ -18529,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="L317" s="2" t="str">
-        <f>IF(K317&gt;=85,"Excellent (6)",IF(K317&gt;=70,"Very Good (5)",IF(K317&gt;=55,"Good (4)",IF(K317&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M317" t="s">
@@ -18567,7 +18567,7 @@
         <v>0</v>
       </c>
       <c r="L318" s="2" t="str">
-        <f>IF(K318&gt;=85,"Excellent (6)",IF(K318&gt;=70,"Very Good (5)",IF(K318&gt;=55,"Good (4)",IF(K318&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M318" t="s">
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="L319" s="2" t="str">
-        <f>IF(K319&gt;=85,"Excellent (6)",IF(K319&gt;=70,"Very Good (5)",IF(K319&gt;=55,"Good (4)",IF(K319&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M319" t="s">
@@ -18643,7 +18643,7 @@
         <v>0</v>
       </c>
       <c r="L320" s="2" t="str">
-        <f>IF(K320&gt;=85,"Excellent (6)",IF(K320&gt;=70,"Very Good (5)",IF(K320&gt;=55,"Good (4)",IF(K320&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M320" t="s">
@@ -18681,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="L321" s="2" t="str">
-        <f>IF(K321&gt;=85,"Excellent (6)",IF(K321&gt;=70,"Very Good (5)",IF(K321&gt;=55,"Good (4)",IF(K321&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M321" t="s">
@@ -18719,7 +18719,7 @@
         <v>0</v>
       </c>
       <c r="L322" s="2" t="str">
-        <f>IF(K322&gt;=85,"Excellent (6)",IF(K322&gt;=70,"Very Good (5)",IF(K322&gt;=55,"Good (4)",IF(K322&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L322:L385" si="5">IF(K322&gt;=85,"Excellent (6)",IF(K322&gt;=70,"Very Good (5)",IF(K322&gt;=55,"Good (4)",IF(K322&gt;=40,"Average (3)","-"))))</f>
         <v>-</v>
       </c>
       <c r="M322" t="s">
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="L323" s="2" t="str">
-        <f>IF(K323&gt;=85,"Excellent (6)",IF(K323&gt;=70,"Very Good (5)",IF(K323&gt;=55,"Good (4)",IF(K323&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M323" t="s">
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="L324" s="2" t="str">
-        <f>IF(K324&gt;=85,"Excellent (6)",IF(K324&gt;=70,"Very Good (5)",IF(K324&gt;=55,"Good (4)",IF(K324&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M324" t="s">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="L325" s="2" t="str">
-        <f>IF(K325&gt;=85,"Excellent (6)",IF(K325&gt;=70,"Very Good (5)",IF(K325&gt;=55,"Good (4)",IF(K325&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M325" t="s">
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="L326" s="2" t="str">
-        <f>IF(K326&gt;=85,"Excellent (6)",IF(K326&gt;=70,"Very Good (5)",IF(K326&gt;=55,"Good (4)",IF(K326&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M326" t="s">
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="L327" s="2" t="str">
-        <f>IF(K327&gt;=85,"Excellent (6)",IF(K327&gt;=70,"Very Good (5)",IF(K327&gt;=55,"Good (4)",IF(K327&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M327" t="s">
@@ -18947,7 +18947,7 @@
         <v>0</v>
       </c>
       <c r="L328" s="2" t="str">
-        <f>IF(K328&gt;=85,"Excellent (6)",IF(K328&gt;=70,"Very Good (5)",IF(K328&gt;=55,"Good (4)",IF(K328&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M328" t="s">
@@ -18985,7 +18985,7 @@
         <v>0</v>
       </c>
       <c r="L329" s="2" t="str">
-        <f>IF(K329&gt;=85,"Excellent (6)",IF(K329&gt;=70,"Very Good (5)",IF(K329&gt;=55,"Good (4)",IF(K329&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M329" t="s">
@@ -19023,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="L330" s="2" t="str">
-        <f>IF(K330&gt;=85,"Excellent (6)",IF(K330&gt;=70,"Very Good (5)",IF(K330&gt;=55,"Good (4)",IF(K330&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M330" t="s">
@@ -19061,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="L331" s="2" t="str">
-        <f>IF(K331&gt;=85,"Excellent (6)",IF(K331&gt;=70,"Very Good (5)",IF(K331&gt;=55,"Good (4)",IF(K331&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M331" t="s">
@@ -19099,7 +19099,7 @@
         <v>0</v>
       </c>
       <c r="L332" s="2" t="str">
-        <f>IF(K332&gt;=85,"Excellent (6)",IF(K332&gt;=70,"Very Good (5)",IF(K332&gt;=55,"Good (4)",IF(K332&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M332" t="s">
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
       <c r="L333" s="2" t="str">
-        <f>IF(K333&gt;=85,"Excellent (6)",IF(K333&gt;=70,"Very Good (5)",IF(K333&gt;=55,"Good (4)",IF(K333&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M333" t="s">
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="L334" s="2" t="str">
-        <f>IF(K334&gt;=85,"Excellent (6)",IF(K334&gt;=70,"Very Good (5)",IF(K334&gt;=55,"Good (4)",IF(K334&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M334" t="s">
@@ -19213,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="L335" s="2" t="str">
-        <f>IF(K335&gt;=85,"Excellent (6)",IF(K335&gt;=70,"Very Good (5)",IF(K335&gt;=55,"Good (4)",IF(K335&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M335" t="s">
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="L336" s="2" t="str">
-        <f>IF(K336&gt;=85,"Excellent (6)",IF(K336&gt;=70,"Very Good (5)",IF(K336&gt;=55,"Good (4)",IF(K336&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M336" t="s">
@@ -19289,7 +19289,7 @@
         <v>0</v>
       </c>
       <c r="L337" s="2" t="str">
-        <f>IF(K337&gt;=85,"Excellent (6)",IF(K337&gt;=70,"Very Good (5)",IF(K337&gt;=55,"Good (4)",IF(K337&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M337" t="s">
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="L338" s="2" t="str">
-        <f>IF(K338&gt;=85,"Excellent (6)",IF(K338&gt;=70,"Very Good (5)",IF(K338&gt;=55,"Good (4)",IF(K338&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M338" t="s">
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="L339" s="2" t="str">
-        <f>IF(K339&gt;=85,"Excellent (6)",IF(K339&gt;=70,"Very Good (5)",IF(K339&gt;=55,"Good (4)",IF(K339&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M339" t="s">
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="L340" s="2" t="str">
-        <f>IF(K340&gt;=85,"Excellent (6)",IF(K340&gt;=70,"Very Good (5)",IF(K340&gt;=55,"Good (4)",IF(K340&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M340" t="s">
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="L341" s="2" t="str">
-        <f>IF(K341&gt;=85,"Excellent (6)",IF(K341&gt;=70,"Very Good (5)",IF(K341&gt;=55,"Good (4)",IF(K341&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M341" t="s">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="L342" s="2" t="str">
-        <f>IF(K342&gt;=85,"Excellent (6)",IF(K342&gt;=70,"Very Good (5)",IF(K342&gt;=55,"Good (4)",IF(K342&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M342" t="s">
@@ -19517,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="L343" s="2" t="str">
-        <f>IF(K343&gt;=85,"Excellent (6)",IF(K343&gt;=70,"Very Good (5)",IF(K343&gt;=55,"Good (4)",IF(K343&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M343" t="s">
@@ -19555,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="L344" s="2" t="str">
-        <f>IF(K344&gt;=85,"Excellent (6)",IF(K344&gt;=70,"Very Good (5)",IF(K344&gt;=55,"Good (4)",IF(K344&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M344" t="s">
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="L345" s="2" t="str">
-        <f>IF(K345&gt;=85,"Excellent (6)",IF(K345&gt;=70,"Very Good (5)",IF(K345&gt;=55,"Good (4)",IF(K345&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M345" t="s">
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="L346" s="2" t="str">
-        <f>IF(K346&gt;=85,"Excellent (6)",IF(K346&gt;=70,"Very Good (5)",IF(K346&gt;=55,"Good (4)",IF(K346&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M346" t="s">
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="L347" s="2" t="str">
-        <f>IF(K347&gt;=85,"Excellent (6)",IF(K347&gt;=70,"Very Good (5)",IF(K347&gt;=55,"Good (4)",IF(K347&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M347" t="s">
@@ -19707,7 +19707,7 @@
         <v>0</v>
       </c>
       <c r="L348" s="2" t="str">
-        <f>IF(K348&gt;=85,"Excellent (6)",IF(K348&gt;=70,"Very Good (5)",IF(K348&gt;=55,"Good (4)",IF(K348&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M348" t="s">
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="L349" s="2" t="str">
-        <f>IF(K349&gt;=85,"Excellent (6)",IF(K349&gt;=70,"Very Good (5)",IF(K349&gt;=55,"Good (4)",IF(K349&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M349" t="s">
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="L350" s="2" t="str">
-        <f>IF(K350&gt;=85,"Excellent (6)",IF(K350&gt;=70,"Very Good (5)",IF(K350&gt;=55,"Good (4)",IF(K350&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M350" t="s">
@@ -19821,7 +19821,7 @@
         <v>0</v>
       </c>
       <c r="L351" s="2" t="str">
-        <f>IF(K351&gt;=85,"Excellent (6)",IF(K351&gt;=70,"Very Good (5)",IF(K351&gt;=55,"Good (4)",IF(K351&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M351" t="s">
@@ -19859,7 +19859,7 @@
         <v>0</v>
       </c>
       <c r="L352" s="2" t="str">
-        <f>IF(K352&gt;=85,"Excellent (6)",IF(K352&gt;=70,"Very Good (5)",IF(K352&gt;=55,"Good (4)",IF(K352&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M352" t="s">
@@ -19897,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="L353" s="2" t="str">
-        <f>IF(K353&gt;=85,"Excellent (6)",IF(K353&gt;=70,"Very Good (5)",IF(K353&gt;=55,"Good (4)",IF(K353&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M353" t="s">
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="L354" s="2" t="str">
-        <f>IF(K354&gt;=85,"Excellent (6)",IF(K354&gt;=70,"Very Good (5)",IF(K354&gt;=55,"Good (4)",IF(K354&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M354" t="s">
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="L355" s="2" t="str">
-        <f>IF(K355&gt;=85,"Excellent (6)",IF(K355&gt;=70,"Very Good (5)",IF(K355&gt;=55,"Good (4)",IF(K355&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M355" t="s">
@@ -20011,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="L356" s="2" t="str">
-        <f>IF(K356&gt;=85,"Excellent (6)",IF(K356&gt;=70,"Very Good (5)",IF(K356&gt;=55,"Good (4)",IF(K356&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M356" t="s">
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="L357" s="2" t="str">
-        <f>IF(K357&gt;=85,"Excellent (6)",IF(K357&gt;=70,"Very Good (5)",IF(K357&gt;=55,"Good (4)",IF(K357&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M357" t="s">
@@ -20087,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="L358" s="2" t="str">
-        <f>IF(K358&gt;=85,"Excellent (6)",IF(K358&gt;=70,"Very Good (5)",IF(K358&gt;=55,"Good (4)",IF(K358&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M358" t="s">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="L359" s="2" t="str">
-        <f>IF(K359&gt;=85,"Excellent (6)",IF(K359&gt;=70,"Very Good (5)",IF(K359&gt;=55,"Good (4)",IF(K359&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M359" t="s">
@@ -20163,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="L360" s="2" t="str">
-        <f>IF(K360&gt;=85,"Excellent (6)",IF(K360&gt;=70,"Very Good (5)",IF(K360&gt;=55,"Good (4)",IF(K360&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M360" t="s">
@@ -20201,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="L361" s="2" t="str">
-        <f>IF(K361&gt;=85,"Excellent (6)",IF(K361&gt;=70,"Very Good (5)",IF(K361&gt;=55,"Good (4)",IF(K361&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M361" t="s">
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="L362" s="2" t="str">
-        <f>IF(K362&gt;=85,"Excellent (6)",IF(K362&gt;=70,"Very Good (5)",IF(K362&gt;=55,"Good (4)",IF(K362&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M362" t="s">
@@ -20277,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="L363" s="2" t="str">
-        <f>IF(K363&gt;=85,"Excellent (6)",IF(K363&gt;=70,"Very Good (5)",IF(K363&gt;=55,"Good (4)",IF(K363&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M363" t="s">
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="L364" s="2" t="str">
-        <f>IF(K364&gt;=85,"Excellent (6)",IF(K364&gt;=70,"Very Good (5)",IF(K364&gt;=55,"Good (4)",IF(K364&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M364" t="s">
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="L365" s="2" t="str">
-        <f>IF(K365&gt;=85,"Excellent (6)",IF(K365&gt;=70,"Very Good (5)",IF(K365&gt;=55,"Good (4)",IF(K365&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M365" t="s">
@@ -20391,7 +20391,7 @@
         <v>0</v>
       </c>
       <c r="L366" s="2" t="str">
-        <f>IF(K366&gt;=85,"Excellent (6)",IF(K366&gt;=70,"Very Good (5)",IF(K366&gt;=55,"Good (4)",IF(K366&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M366" t="s">
@@ -20429,7 +20429,7 @@
         <v>0</v>
       </c>
       <c r="L367" s="2" t="str">
-        <f>IF(K367&gt;=85,"Excellent (6)",IF(K367&gt;=70,"Very Good (5)",IF(K367&gt;=55,"Good (4)",IF(K367&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M367" t="s">
@@ -20467,7 +20467,7 @@
         <v>0</v>
       </c>
       <c r="L368" s="2" t="str">
-        <f>IF(K368&gt;=85,"Excellent (6)",IF(K368&gt;=70,"Very Good (5)",IF(K368&gt;=55,"Good (4)",IF(K368&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M368" t="s">
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="L369" s="2" t="str">
-        <f>IF(K369&gt;=85,"Excellent (6)",IF(K369&gt;=70,"Very Good (5)",IF(K369&gt;=55,"Good (4)",IF(K369&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M369" t="s">
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="L370" s="2" t="str">
-        <f>IF(K370&gt;=85,"Excellent (6)",IF(K370&gt;=70,"Very Good (5)",IF(K370&gt;=55,"Good (4)",IF(K370&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M370" t="s">
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="L371" s="2" t="str">
-        <f>IF(K371&gt;=85,"Excellent (6)",IF(K371&gt;=70,"Very Good (5)",IF(K371&gt;=55,"Good (4)",IF(K371&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M371" t="s">
@@ -20619,7 +20619,7 @@
         <v>0</v>
       </c>
       <c r="L372" s="2" t="str">
-        <f>IF(K372&gt;=85,"Excellent (6)",IF(K372&gt;=70,"Very Good (5)",IF(K372&gt;=55,"Good (4)",IF(K372&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M372" t="s">
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
       <c r="L373" s="2" t="str">
-        <f>IF(K373&gt;=85,"Excellent (6)",IF(K373&gt;=70,"Very Good (5)",IF(K373&gt;=55,"Good (4)",IF(K373&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M373" t="s">
@@ -20695,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="L374" s="2" t="str">
-        <f>IF(K374&gt;=85,"Excellent (6)",IF(K374&gt;=70,"Very Good (5)",IF(K374&gt;=55,"Good (4)",IF(K374&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M374" t="s">
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="L375" s="2" t="str">
-        <f>IF(K375&gt;=85,"Excellent (6)",IF(K375&gt;=70,"Very Good (5)",IF(K375&gt;=55,"Good (4)",IF(K375&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M375" t="s">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="L376" s="2" t="str">
-        <f>IF(K376&gt;=85,"Excellent (6)",IF(K376&gt;=70,"Very Good (5)",IF(K376&gt;=55,"Good (4)",IF(K376&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M376" t="s">
@@ -20809,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="L377" s="2" t="str">
-        <f>IF(K377&gt;=85,"Excellent (6)",IF(K377&gt;=70,"Very Good (5)",IF(K377&gt;=55,"Good (4)",IF(K377&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M377" t="s">
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="L378" s="2" t="str">
-        <f>IF(K378&gt;=85,"Excellent (6)",IF(K378&gt;=70,"Very Good (5)",IF(K378&gt;=55,"Good (4)",IF(K378&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M378" t="s">
@@ -20885,7 +20885,7 @@
         <v>0</v>
       </c>
       <c r="L379" s="2" t="str">
-        <f>IF(K379&gt;=85,"Excellent (6)",IF(K379&gt;=70,"Very Good (5)",IF(K379&gt;=55,"Good (4)",IF(K379&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M379" t="s">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="L380" s="2" t="str">
-        <f>IF(K380&gt;=85,"Excellent (6)",IF(K380&gt;=70,"Very Good (5)",IF(K380&gt;=55,"Good (4)",IF(K380&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M380" t="s">
@@ -20961,7 +20961,7 @@
         <v>0</v>
       </c>
       <c r="L381" s="2" t="str">
-        <f>IF(K381&gt;=85,"Excellent (6)",IF(K381&gt;=70,"Very Good (5)",IF(K381&gt;=55,"Good (4)",IF(K381&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M381" t="s">
@@ -20999,7 +20999,7 @@
         <v>0</v>
       </c>
       <c r="L382" s="2" t="str">
-        <f>IF(K382&gt;=85,"Excellent (6)",IF(K382&gt;=70,"Very Good (5)",IF(K382&gt;=55,"Good (4)",IF(K382&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M382" t="s">
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="L383" s="2" t="str">
-        <f>IF(K383&gt;=85,"Excellent (6)",IF(K383&gt;=70,"Very Good (5)",IF(K383&gt;=55,"Good (4)",IF(K383&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M383" t="s">
@@ -21075,7 +21075,7 @@
         <v>0</v>
       </c>
       <c r="L384" s="2" t="str">
-        <f>IF(K384&gt;=85,"Excellent (6)",IF(K384&gt;=70,"Very Good (5)",IF(K384&gt;=55,"Good (4)",IF(K384&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M384" t="s">
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="L385" s="2" t="str">
-        <f>IF(K385&gt;=85,"Excellent (6)",IF(K385&gt;=70,"Very Good (5)",IF(K385&gt;=55,"Good (4)",IF(K385&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M385" t="s">
@@ -21151,7 +21151,7 @@
         <v>0</v>
       </c>
       <c r="L386" s="2" t="str">
-        <f>IF(K386&gt;=85,"Excellent (6)",IF(K386&gt;=70,"Very Good (5)",IF(K386&gt;=55,"Good (4)",IF(K386&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L386:L449" si="6">IF(K386&gt;=85,"Excellent (6)",IF(K386&gt;=70,"Very Good (5)",IF(K386&gt;=55,"Good (4)",IF(K386&gt;=40,"Average (3)","-"))))</f>
         <v>-</v>
       </c>
       <c r="M386" t="s">
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="L387" s="2" t="str">
-        <f>IF(K387&gt;=85,"Excellent (6)",IF(K387&gt;=70,"Very Good (5)",IF(K387&gt;=55,"Good (4)",IF(K387&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M387" t="s">
@@ -21227,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="L388" s="2" t="str">
-        <f>IF(K388&gt;=85,"Excellent (6)",IF(K388&gt;=70,"Very Good (5)",IF(K388&gt;=55,"Good (4)",IF(K388&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M388" t="s">
@@ -21265,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="L389" s="2" t="str">
-        <f>IF(K389&gt;=85,"Excellent (6)",IF(K389&gt;=70,"Very Good (5)",IF(K389&gt;=55,"Good (4)",IF(K389&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M389" t="s">
@@ -21303,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="L390" s="2" t="str">
-        <f>IF(K390&gt;=85,"Excellent (6)",IF(K390&gt;=70,"Very Good (5)",IF(K390&gt;=55,"Good (4)",IF(K390&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M390" t="s">
@@ -21341,7 +21341,7 @@
         <v>0</v>
       </c>
       <c r="L391" s="2" t="str">
-        <f>IF(K391&gt;=85,"Excellent (6)",IF(K391&gt;=70,"Very Good (5)",IF(K391&gt;=55,"Good (4)",IF(K391&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M391" t="s">
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="L392" s="2" t="str">
-        <f>IF(K392&gt;=85,"Excellent (6)",IF(K392&gt;=70,"Very Good (5)",IF(K392&gt;=55,"Good (4)",IF(K392&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M392" t="s">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="L393" s="2" t="str">
-        <f>IF(K393&gt;=85,"Excellent (6)",IF(K393&gt;=70,"Very Good (5)",IF(K393&gt;=55,"Good (4)",IF(K393&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M393" t="s">
@@ -21455,7 +21455,7 @@
         <v>0</v>
       </c>
       <c r="L394" s="2" t="str">
-        <f>IF(K394&gt;=85,"Excellent (6)",IF(K394&gt;=70,"Very Good (5)",IF(K394&gt;=55,"Good (4)",IF(K394&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M394" t="s">
@@ -21493,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="L395" s="2" t="str">
-        <f>IF(K395&gt;=85,"Excellent (6)",IF(K395&gt;=70,"Very Good (5)",IF(K395&gt;=55,"Good (4)",IF(K395&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M395" t="s">
@@ -21531,7 +21531,7 @@
         <v>0</v>
       </c>
       <c r="L396" s="2" t="str">
-        <f>IF(K396&gt;=85,"Excellent (6)",IF(K396&gt;=70,"Very Good (5)",IF(K396&gt;=55,"Good (4)",IF(K396&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M396" t="s">
@@ -21569,7 +21569,7 @@
         <v>0</v>
       </c>
       <c r="L397" s="2" t="str">
-        <f>IF(K397&gt;=85,"Excellent (6)",IF(K397&gt;=70,"Very Good (5)",IF(K397&gt;=55,"Good (4)",IF(K397&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M397" t="s">
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="L398" s="2" t="str">
-        <f>IF(K398&gt;=85,"Excellent (6)",IF(K398&gt;=70,"Very Good (5)",IF(K398&gt;=55,"Good (4)",IF(K398&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M398" t="s">
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="L399" s="2" t="str">
-        <f>IF(K399&gt;=85,"Excellent (6)",IF(K399&gt;=70,"Very Good (5)",IF(K399&gt;=55,"Good (4)",IF(K399&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M399" t="s">
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="L400" s="2" t="str">
-        <f>IF(K400&gt;=85,"Excellent (6)",IF(K400&gt;=70,"Very Good (5)",IF(K400&gt;=55,"Good (4)",IF(K400&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M400" t="s">
@@ -21721,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="L401" s="2" t="str">
-        <f>IF(K401&gt;=85,"Excellent (6)",IF(K401&gt;=70,"Very Good (5)",IF(K401&gt;=55,"Good (4)",IF(K401&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M401" t="s">
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="L402" s="2" t="str">
-        <f>IF(K402&gt;=85,"Excellent (6)",IF(K402&gt;=70,"Very Good (5)",IF(K402&gt;=55,"Good (4)",IF(K402&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M402" t="s">
@@ -21797,7 +21797,7 @@
         <v>0</v>
       </c>
       <c r="L403" s="2" t="str">
-        <f>IF(K403&gt;=85,"Excellent (6)",IF(K403&gt;=70,"Very Good (5)",IF(K403&gt;=55,"Good (4)",IF(K403&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M403" t="s">
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="L404" s="2" t="str">
-        <f>IF(K404&gt;=85,"Excellent (6)",IF(K404&gt;=70,"Very Good (5)",IF(K404&gt;=55,"Good (4)",IF(K404&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M404" t="s">
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="L405" s="2" t="str">
-        <f>IF(K405&gt;=85,"Excellent (6)",IF(K405&gt;=70,"Very Good (5)",IF(K405&gt;=55,"Good (4)",IF(K405&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M405" t="s">
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="L406" s="2" t="str">
-        <f>IF(K406&gt;=85,"Excellent (6)",IF(K406&gt;=70,"Very Good (5)",IF(K406&gt;=55,"Good (4)",IF(K406&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M406" t="s">
@@ -21949,7 +21949,7 @@
         <v>0</v>
       </c>
       <c r="L407" s="2" t="str">
-        <f>IF(K407&gt;=85,"Excellent (6)",IF(K407&gt;=70,"Very Good (5)",IF(K407&gt;=55,"Good (4)",IF(K407&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M407" t="s">
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="L408" s="2" t="str">
-        <f>IF(K408&gt;=85,"Excellent (6)",IF(K408&gt;=70,"Very Good (5)",IF(K408&gt;=55,"Good (4)",IF(K408&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M408" t="s">
@@ -22025,7 +22025,7 @@
         <v>0</v>
       </c>
       <c r="L409" s="2" t="str">
-        <f>IF(K409&gt;=85,"Excellent (6)",IF(K409&gt;=70,"Very Good (5)",IF(K409&gt;=55,"Good (4)",IF(K409&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M409" t="s">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="L410" s="2" t="str">
-        <f>IF(K410&gt;=85,"Excellent (6)",IF(K410&gt;=70,"Very Good (5)",IF(K410&gt;=55,"Good (4)",IF(K410&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M410" t="s">
@@ -22101,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="L411" s="2" t="str">
-        <f>IF(K411&gt;=85,"Excellent (6)",IF(K411&gt;=70,"Very Good (5)",IF(K411&gt;=55,"Good (4)",IF(K411&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M411" t="s">
@@ -22139,7 +22139,7 @@
         <v>0</v>
       </c>
       <c r="L412" s="2" t="str">
-        <f>IF(K412&gt;=85,"Excellent (6)",IF(K412&gt;=70,"Very Good (5)",IF(K412&gt;=55,"Good (4)",IF(K412&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M412" t="s">
@@ -22177,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="L413" s="2" t="str">
-        <f>IF(K413&gt;=85,"Excellent (6)",IF(K413&gt;=70,"Very Good (5)",IF(K413&gt;=55,"Good (4)",IF(K413&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M413" t="s">
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="L414" s="2" t="str">
-        <f>IF(K414&gt;=85,"Excellent (6)",IF(K414&gt;=70,"Very Good (5)",IF(K414&gt;=55,"Good (4)",IF(K414&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M414" t="s">
@@ -22253,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="L415" s="2" t="str">
-        <f>IF(K415&gt;=85,"Excellent (6)",IF(K415&gt;=70,"Very Good (5)",IF(K415&gt;=55,"Good (4)",IF(K415&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M415" t="s">
@@ -22291,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="L416" s="2" t="str">
-        <f>IF(K416&gt;=85,"Excellent (6)",IF(K416&gt;=70,"Very Good (5)",IF(K416&gt;=55,"Good (4)",IF(K416&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M416" t="s">
@@ -22329,7 +22329,7 @@
         <v>0</v>
       </c>
       <c r="L417" s="2" t="str">
-        <f>IF(K417&gt;=85,"Excellent (6)",IF(K417&gt;=70,"Very Good (5)",IF(K417&gt;=55,"Good (4)",IF(K417&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M417" t="s">
@@ -22367,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="L418" s="2" t="str">
-        <f>IF(K418&gt;=85,"Excellent (6)",IF(K418&gt;=70,"Very Good (5)",IF(K418&gt;=55,"Good (4)",IF(K418&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M418" t="s">
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="L419" s="2" t="str">
-        <f>IF(K419&gt;=85,"Excellent (6)",IF(K419&gt;=70,"Very Good (5)",IF(K419&gt;=55,"Good (4)",IF(K419&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M419" t="s">
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="L420" s="2" t="str">
-        <f>IF(K420&gt;=85,"Excellent (6)",IF(K420&gt;=70,"Very Good (5)",IF(K420&gt;=55,"Good (4)",IF(K420&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M420" t="s">
@@ -22481,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="L421" s="2" t="str">
-        <f>IF(K421&gt;=85,"Excellent (6)",IF(K421&gt;=70,"Very Good (5)",IF(K421&gt;=55,"Good (4)",IF(K421&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M421" t="s">
@@ -22519,7 +22519,7 @@
         <v>0</v>
       </c>
       <c r="L422" s="2" t="str">
-        <f>IF(K422&gt;=85,"Excellent (6)",IF(K422&gt;=70,"Very Good (5)",IF(K422&gt;=55,"Good (4)",IF(K422&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M422" t="s">
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="L423" s="2" t="str">
-        <f>IF(K423&gt;=85,"Excellent (6)",IF(K423&gt;=70,"Very Good (5)",IF(K423&gt;=55,"Good (4)",IF(K423&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M423" t="s">
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="L424" s="2" t="str">
-        <f>IF(K424&gt;=85,"Excellent (6)",IF(K424&gt;=70,"Very Good (5)",IF(K424&gt;=55,"Good (4)",IF(K424&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M424" t="s">
@@ -22633,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="L425" s="2" t="str">
-        <f>IF(K425&gt;=85,"Excellent (6)",IF(K425&gt;=70,"Very Good (5)",IF(K425&gt;=55,"Good (4)",IF(K425&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M425" t="s">
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="L426" s="2" t="str">
-        <f>IF(K426&gt;=85,"Excellent (6)",IF(K426&gt;=70,"Very Good (5)",IF(K426&gt;=55,"Good (4)",IF(K426&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M426" t="s">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="L427" s="2" t="str">
-        <f>IF(K427&gt;=85,"Excellent (6)",IF(K427&gt;=70,"Very Good (5)",IF(K427&gt;=55,"Good (4)",IF(K427&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M427" t="s">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="L428" s="2" t="str">
-        <f>IF(K428&gt;=85,"Excellent (6)",IF(K428&gt;=70,"Very Good (5)",IF(K428&gt;=55,"Good (4)",IF(K428&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M428" t="s">
@@ -22785,7 +22785,7 @@
         <v>0</v>
       </c>
       <c r="L429" s="2" t="str">
-        <f>IF(K429&gt;=85,"Excellent (6)",IF(K429&gt;=70,"Very Good (5)",IF(K429&gt;=55,"Good (4)",IF(K429&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M429" t="s">
@@ -22823,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="L430" s="2" t="str">
-        <f>IF(K430&gt;=85,"Excellent (6)",IF(K430&gt;=70,"Very Good (5)",IF(K430&gt;=55,"Good (4)",IF(K430&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M430" t="s">
@@ -22861,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="L431" s="2" t="str">
-        <f>IF(K431&gt;=85,"Excellent (6)",IF(K431&gt;=70,"Very Good (5)",IF(K431&gt;=55,"Good (4)",IF(K431&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M431" t="s">
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="L432" s="2" t="str">
-        <f>IF(K432&gt;=85,"Excellent (6)",IF(K432&gt;=70,"Very Good (5)",IF(K432&gt;=55,"Good (4)",IF(K432&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M432" t="s">
@@ -22937,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="L433" s="2" t="str">
-        <f>IF(K433&gt;=85,"Excellent (6)",IF(K433&gt;=70,"Very Good (5)",IF(K433&gt;=55,"Good (4)",IF(K433&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M433" t="s">
@@ -22975,7 +22975,7 @@
         <v>0</v>
       </c>
       <c r="L434" s="2" t="str">
-        <f>IF(K434&gt;=85,"Excellent (6)",IF(K434&gt;=70,"Very Good (5)",IF(K434&gt;=55,"Good (4)",IF(K434&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M434" t="s">
@@ -23013,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="L435" s="2" t="str">
-        <f>IF(K435&gt;=85,"Excellent (6)",IF(K435&gt;=70,"Very Good (5)",IF(K435&gt;=55,"Good (4)",IF(K435&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M435" t="s">
@@ -23051,7 +23051,7 @@
         <v>0</v>
       </c>
       <c r="L436" s="2" t="str">
-        <f>IF(K436&gt;=85,"Excellent (6)",IF(K436&gt;=70,"Very Good (5)",IF(K436&gt;=55,"Good (4)",IF(K436&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M436" t="s">
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="L437" s="2" t="str">
-        <f>IF(K437&gt;=85,"Excellent (6)",IF(K437&gt;=70,"Very Good (5)",IF(K437&gt;=55,"Good (4)",IF(K437&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M437" t="s">
@@ -23127,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="L438" s="2" t="str">
-        <f>IF(K438&gt;=85,"Excellent (6)",IF(K438&gt;=70,"Very Good (5)",IF(K438&gt;=55,"Good (4)",IF(K438&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M438" t="s">
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="L439" s="2" t="str">
-        <f>IF(K439&gt;=85,"Excellent (6)",IF(K439&gt;=70,"Very Good (5)",IF(K439&gt;=55,"Good (4)",IF(K439&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M439" t="s">
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
       <c r="L440" s="2" t="str">
-        <f>IF(K440&gt;=85,"Excellent (6)",IF(K440&gt;=70,"Very Good (5)",IF(K440&gt;=55,"Good (4)",IF(K440&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M440" t="s">
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="L441" s="2" t="str">
-        <f>IF(K441&gt;=85,"Excellent (6)",IF(K441&gt;=70,"Very Good (5)",IF(K441&gt;=55,"Good (4)",IF(K441&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M441" t="s">
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="L442" s="2" t="str">
-        <f>IF(K442&gt;=85,"Excellent (6)",IF(K442&gt;=70,"Very Good (5)",IF(K442&gt;=55,"Good (4)",IF(K442&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M442" t="s">
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="L443" s="2" t="str">
-        <f>IF(K443&gt;=85,"Excellent (6)",IF(K443&gt;=70,"Very Good (5)",IF(K443&gt;=55,"Good (4)",IF(K443&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M443" t="s">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="L444" s="2" t="str">
-        <f>IF(K444&gt;=85,"Excellent (6)",IF(K444&gt;=70,"Very Good (5)",IF(K444&gt;=55,"Good (4)",IF(K444&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M444" t="s">
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="L445" s="2" t="str">
-        <f>IF(K445&gt;=85,"Excellent (6)",IF(K445&gt;=70,"Very Good (5)",IF(K445&gt;=55,"Good (4)",IF(K445&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M445" t="s">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="L446" s="2" t="str">
-        <f>IF(K446&gt;=85,"Excellent (6)",IF(K446&gt;=70,"Very Good (5)",IF(K446&gt;=55,"Good (4)",IF(K446&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M446" t="s">
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="L447" s="2" t="str">
-        <f>IF(K447&gt;=85,"Excellent (6)",IF(K447&gt;=70,"Very Good (5)",IF(K447&gt;=55,"Good (4)",IF(K447&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M447" t="s">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="L448" s="2" t="str">
-        <f>IF(K448&gt;=85,"Excellent (6)",IF(K448&gt;=70,"Very Good (5)",IF(K448&gt;=55,"Good (4)",IF(K448&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M448" t="s">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="L449" s="2" t="str">
-        <f>IF(K449&gt;=85,"Excellent (6)",IF(K449&gt;=70,"Very Good (5)",IF(K449&gt;=55,"Good (4)",IF(K449&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="M449" t="s">
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
       <c r="L450" s="2" t="str">
-        <f>IF(K450&gt;=85,"Excellent (6)",IF(K450&gt;=70,"Very Good (5)",IF(K450&gt;=55,"Good (4)",IF(K450&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" ref="L450:L513" si="7">IF(K450&gt;=85,"Excellent (6)",IF(K450&gt;=70,"Very Good (5)",IF(K450&gt;=55,"Good (4)",IF(K450&gt;=40,"Average (3)","-"))))</f>
         <v>-</v>
       </c>
       <c r="M450" t="s">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="L451" s="2" t="str">
-        <f>IF(K451&gt;=85,"Excellent (6)",IF(K451&gt;=70,"Very Good (5)",IF(K451&gt;=55,"Good (4)",IF(K451&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M451" t="s">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="L452" s="2" t="str">
-        <f>IF(K452&gt;=85,"Excellent (6)",IF(K452&gt;=70,"Very Good (5)",IF(K452&gt;=55,"Good (4)",IF(K452&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M452" t="s">
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="L453" s="2" t="str">
-        <f>IF(K453&gt;=85,"Excellent (6)",IF(K453&gt;=70,"Very Good (5)",IF(K453&gt;=55,"Good (4)",IF(K453&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M453" t="s">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="L454" s="2" t="str">
-        <f>IF(K454&gt;=85,"Excellent (6)",IF(K454&gt;=70,"Very Good (5)",IF(K454&gt;=55,"Good (4)",IF(K454&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M454" t="s">
@@ -23773,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="L455" s="2" t="str">
-        <f>IF(K455&gt;=85,"Excellent (6)",IF(K455&gt;=70,"Very Good (5)",IF(K455&gt;=55,"Good (4)",IF(K455&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M455" t="s">
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="L456" s="2" t="str">
-        <f>IF(K456&gt;=85,"Excellent (6)",IF(K456&gt;=70,"Very Good (5)",IF(K456&gt;=55,"Good (4)",IF(K456&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M456" t="s">
@@ -23849,7 +23849,7 @@
         <v>0</v>
       </c>
       <c r="L457" s="2" t="str">
-        <f>IF(K457&gt;=85,"Excellent (6)",IF(K457&gt;=70,"Very Good (5)",IF(K457&gt;=55,"Good (4)",IF(K457&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M457" t="s">
@@ -23887,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="L458" s="2" t="str">
-        <f>IF(K458&gt;=85,"Excellent (6)",IF(K458&gt;=70,"Very Good (5)",IF(K458&gt;=55,"Good (4)",IF(K458&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M458" t="s">
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="L459" s="2" t="str">
-        <f>IF(K459&gt;=85,"Excellent (6)",IF(K459&gt;=70,"Very Good (5)",IF(K459&gt;=55,"Good (4)",IF(K459&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M459" t="s">
@@ -23963,7 +23963,7 @@
         <v>0</v>
       </c>
       <c r="L460" s="2" t="str">
-        <f>IF(K460&gt;=85,"Excellent (6)",IF(K460&gt;=70,"Very Good (5)",IF(K460&gt;=55,"Good (4)",IF(K460&gt;=40,"Average (3)","-"))))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="M460" t="s">
